--- a/vendordata.xlsx
+++ b/vendordata.xlsx
@@ -1,85 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21e53a716e7564c8/Masaüstü/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\GitHub\emu430-fall2023-team-ctrl_s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17132150-5E13-43D2-9480-3141BB4853A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0A4F90-CA70-49BA-B64E-DD55D36CFE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vendordata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Xiaomi</t>
-  </si>
-  <si>
-    <t>Huawei</t>
-  </si>
-  <si>
-    <t>Oppo</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Motorola</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
-    <t>Lenovo</t>
-  </si>
-  <si>
-    <t>Mobicel</t>
-  </si>
-  <si>
-    <t>Vivo</t>
-  </si>
-  <si>
-    <t>Nokia</t>
-  </si>
-  <si>
-    <t>Realme</t>
-  </si>
-  <si>
-    <t>Sony</t>
-  </si>
-  <si>
-    <t>Asus</t>
-  </si>
-  <si>
-    <t>BBK</t>
-  </si>
-  <si>
-    <t>OnePlus</t>
-  </si>
-  <si>
-    <t>HTC</t>
-  </si>
-  <si>
-    <t>Google</t>
   </si>
   <si>
     <t>Tecno</t>
@@ -466,7 +422,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -948,48 +904,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Açıklama Metni" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Ana Başlık" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Bağlı Hücre" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Başlık 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Başlık 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Başlık 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Başlık 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Çıkış" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Giriş" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hesaplama" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="İşaretli Hücre" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="İyi" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Kötü" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Not" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Nötr" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Toplam" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Uyarı Metni" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vurgu1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Vurgu2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Vurgu3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Vurgu4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Vurgu5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Vurgu6" xfId="38" builtinId="49" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1005,7 +961,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1300,300 +1256,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BX74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" zoomScale="122" workbookViewId="0">
+      <selection activeCell="CA8" sqref="CA8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="U1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="V1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="W1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="X1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Y1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Z1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AA1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AB1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AC1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AD1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AE1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AF1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AG1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AH1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AI1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AJ1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AK1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AL1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AM1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AN1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AO1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AP1" t="s">
         <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>41</v>
       </c>
       <c r="AQ1" t="b">
         <v>1</v>
       </c>
       <c r="AR1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BK1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BL1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BM1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BN1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BO1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BP1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BQ1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BR1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BS1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BT1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BU1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BV1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BW1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BX1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>55</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2">
-        <v>33.020000000000003</v>
-      </c>
-      <c r="C2">
-        <v>19.87</v>
-      </c>
-      <c r="D2">
-        <v>2.77</v>
-      </c>
-      <c r="E2">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="F2">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="G2">
-        <v>7.79</v>
-      </c>
-      <c r="H2">
-        <v>2.11</v>
-      </c>
-      <c r="I2">
-        <v>3.64</v>
-      </c>
-      <c r="J2">
-        <v>3.07</v>
-      </c>
-      <c r="K2">
-        <v>0.25</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>2.69</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>2.11</v>
-      </c>
-      <c r="P2">
-        <v>1.29</v>
-      </c>
-      <c r="Q2">
-        <v>1.66</v>
-      </c>
-      <c r="R2">
-        <v>0.26</v>
-      </c>
-      <c r="S2">
-        <v>1.56</v>
-      </c>
-      <c r="T2">
-        <v>0.36</v>
       </c>
       <c r="U2">
         <v>0.26</v>
@@ -1760,67 +1607,14 @@
       <c r="BW2">
         <v>0.4</v>
       </c>
+      <c r="BX2">
+        <f>SUM(U2:BW2)</f>
+        <v>10.889999999999993</v>
+      </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3">
-        <v>33.17</v>
-      </c>
-      <c r="C3">
-        <v>19.32</v>
-      </c>
-      <c r="D3">
-        <v>3.06</v>
-      </c>
-      <c r="E3">
-        <v>4.37</v>
-      </c>
-      <c r="F3">
-        <v>2.83</v>
-      </c>
-      <c r="G3">
-        <v>7.56</v>
-      </c>
-      <c r="H3">
-        <v>2.1</v>
-      </c>
-      <c r="I3">
-        <v>3.58</v>
-      </c>
-      <c r="J3">
-        <v>3.07</v>
-      </c>
-      <c r="K3">
-        <v>0.43</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>2.7</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>2.04</v>
-      </c>
-      <c r="P3">
-        <v>1.32</v>
-      </c>
-      <c r="Q3">
-        <v>1.74</v>
-      </c>
-      <c r="R3">
-        <v>0.26</v>
-      </c>
-      <c r="S3">
-        <v>1.49</v>
-      </c>
-      <c r="T3">
-        <v>0.35</v>
+        <v>56</v>
       </c>
       <c r="U3">
         <v>0.26</v>
@@ -1987,67 +1781,14 @@
       <c r="BW3">
         <v>0.39</v>
       </c>
+      <c r="BX3">
+        <f t="shared" ref="BX3:BX66" si="0">SUM(U3:BW3)</f>
+        <v>10.599999999999994</v>
+      </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4">
-        <v>33.1</v>
-      </c>
-      <c r="C4">
-        <v>19.350000000000001</v>
-      </c>
-      <c r="D4">
-        <v>3.28</v>
-      </c>
-      <c r="E4">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="F4">
-        <v>2.97</v>
-      </c>
-      <c r="G4">
-        <v>7.37</v>
-      </c>
-      <c r="H4">
-        <v>2.11</v>
-      </c>
-      <c r="I4">
-        <v>3.65</v>
-      </c>
-      <c r="J4">
-        <v>3.09</v>
-      </c>
-      <c r="K4">
-        <v>0.62</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>2.5</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>1.99</v>
-      </c>
-      <c r="P4">
-        <v>1.29</v>
-      </c>
-      <c r="Q4">
-        <v>1.71</v>
-      </c>
-      <c r="R4">
-        <v>0.25</v>
-      </c>
-      <c r="S4">
-        <v>1.46</v>
-      </c>
-      <c r="T4">
-        <v>0.34</v>
+        <v>57</v>
       </c>
       <c r="U4">
         <v>0.28000000000000003</v>
@@ -2214,67 +1955,14 @@
       <c r="BW4">
         <v>0.4</v>
       </c>
+      <c r="BX4">
+        <f t="shared" si="0"/>
+        <v>10.409999999999998</v>
+      </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5">
-        <v>33.4</v>
-      </c>
-      <c r="C5">
-        <v>18.78</v>
-      </c>
-      <c r="D5">
-        <v>3.55</v>
-      </c>
-      <c r="E5">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="F5">
-        <v>3.06</v>
-      </c>
-      <c r="G5">
-        <v>7.59</v>
-      </c>
-      <c r="H5">
-        <v>2.19</v>
-      </c>
-      <c r="I5">
-        <v>3.69</v>
-      </c>
-      <c r="J5">
-        <v>3.09</v>
-      </c>
-      <c r="K5">
-        <v>0.78</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>2.42</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>1.93</v>
-      </c>
-      <c r="P5">
-        <v>1.29</v>
-      </c>
-      <c r="Q5">
-        <v>1.63</v>
-      </c>
-      <c r="R5">
-        <v>0.23</v>
-      </c>
-      <c r="S5">
-        <v>1.41</v>
-      </c>
-      <c r="T5">
-        <v>0.34</v>
+        <v>58</v>
       </c>
       <c r="U5">
         <v>0.3</v>
@@ -2441,67 +2129,14 @@
       <c r="BW5">
         <v>0.4</v>
       </c>
+      <c r="BX5">
+        <f t="shared" si="0"/>
+        <v>10.069999999999995</v>
+      </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6">
-        <v>33.119999999999997</v>
-      </c>
-      <c r="C6">
-        <v>20.32</v>
-      </c>
-      <c r="D6">
-        <v>3.58</v>
-      </c>
-      <c r="E6">
-        <v>4.7</v>
-      </c>
-      <c r="F6">
-        <v>2.98</v>
-      </c>
-      <c r="G6">
-        <v>6.97</v>
-      </c>
-      <c r="H6">
-        <v>2.29</v>
-      </c>
-      <c r="I6">
-        <v>3.82</v>
-      </c>
-      <c r="J6">
-        <v>2.91</v>
-      </c>
-      <c r="K6">
-        <v>0.9</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1.86</v>
-      </c>
-      <c r="P6">
-        <v>1.2</v>
-      </c>
-      <c r="Q6">
-        <v>1.51</v>
-      </c>
-      <c r="R6">
-        <v>0.23</v>
-      </c>
-      <c r="S6">
-        <v>1.38</v>
-      </c>
-      <c r="T6">
-        <v>0.33</v>
+        <v>59</v>
       </c>
       <c r="U6">
         <v>0.31</v>
@@ -2668,67 +2303,14 @@
       <c r="BW6">
         <v>0.4</v>
       </c>
+      <c r="BX6">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999957</v>
+      </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7">
-        <v>33.71</v>
-      </c>
-      <c r="C7">
-        <v>19.37</v>
-      </c>
-      <c r="D7">
-        <v>3.59</v>
-      </c>
-      <c r="E7">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="F7">
-        <v>3.02</v>
-      </c>
-      <c r="G7">
-        <v>7.42</v>
-      </c>
-      <c r="H7">
-        <v>2.31</v>
-      </c>
-      <c r="I7">
-        <v>3.82</v>
-      </c>
-      <c r="J7">
-        <v>2.86</v>
-      </c>
-      <c r="K7">
-        <v>0.97</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1.88</v>
-      </c>
-      <c r="P7">
-        <v>1.21</v>
-      </c>
-      <c r="Q7">
-        <v>1.39</v>
-      </c>
-      <c r="R7">
-        <v>0.24</v>
-      </c>
-      <c r="S7">
-        <v>1.35</v>
-      </c>
-      <c r="T7">
-        <v>0.31</v>
+        <v>60</v>
       </c>
       <c r="U7">
         <v>0.34</v>
@@ -2895,67 +2477,14 @@
       <c r="BW7">
         <v>0.41</v>
       </c>
+      <c r="BX7">
+        <f t="shared" si="0"/>
+        <v>9.6199999999999974</v>
+      </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8">
-        <v>32.630000000000003</v>
-      </c>
-      <c r="C8">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="F8">
-        <v>3.28</v>
-      </c>
-      <c r="G8">
-        <v>7.48</v>
-      </c>
-      <c r="H8">
-        <v>2.41</v>
-      </c>
-      <c r="I8">
-        <v>3.58</v>
-      </c>
-      <c r="J8">
-        <v>2.79</v>
-      </c>
-      <c r="K8">
-        <v>1.17</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>2.09</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>1.82</v>
-      </c>
-      <c r="P8">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="Q8">
-        <v>1.4</v>
-      </c>
-      <c r="R8">
-        <v>0.32</v>
-      </c>
-      <c r="S8">
-        <v>1.24</v>
-      </c>
-      <c r="T8">
-        <v>0.32</v>
+        <v>61</v>
       </c>
       <c r="U8">
         <v>0.37</v>
@@ -3122,67 +2651,14 @@
       <c r="BW8">
         <v>0.4</v>
       </c>
+      <c r="BX8">
+        <f t="shared" si="0"/>
+        <v>9.1899999999999959</v>
+      </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9">
-        <v>31.88</v>
-      </c>
-      <c r="C9">
-        <v>20.34</v>
-      </c>
-      <c r="D9">
-        <v>4.38</v>
-      </c>
-      <c r="E9">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="F9">
-        <v>3.34</v>
-      </c>
-      <c r="G9">
-        <v>7.46</v>
-      </c>
-      <c r="H9">
-        <v>2.54</v>
-      </c>
-      <c r="I9">
-        <v>3.52</v>
-      </c>
-      <c r="J9">
-        <v>2.86</v>
-      </c>
-      <c r="K9">
-        <v>1.33</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>1.96</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>1.78</v>
-      </c>
-      <c r="P9">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="Q9">
-        <v>1.38</v>
-      </c>
-      <c r="R9">
-        <v>0.32</v>
-      </c>
-      <c r="S9">
-        <v>1.23</v>
-      </c>
-      <c r="T9">
-        <v>0.34</v>
+        <v>62</v>
       </c>
       <c r="U9">
         <v>0.37</v>
@@ -3349,67 +2825,14 @@
       <c r="BW9">
         <v>0.38</v>
       </c>
+      <c r="BX9">
+        <f t="shared" si="0"/>
+        <v>9.1099999999999977</v>
+      </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10">
-        <v>31.65</v>
-      </c>
-      <c r="C10">
-        <v>19.91</v>
-      </c>
-      <c r="D10">
-        <v>4.75</v>
-      </c>
-      <c r="E10">
-        <v>4.96</v>
-      </c>
-      <c r="F10">
-        <v>3.42</v>
-      </c>
-      <c r="G10">
-        <v>7.68</v>
-      </c>
-      <c r="H10">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="I10">
-        <v>3.48</v>
-      </c>
-      <c r="J10">
-        <v>2.94</v>
-      </c>
-      <c r="K10">
-        <v>1.49</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>1.71</v>
-      </c>
-      <c r="P10">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="Q10">
-        <v>1.4</v>
-      </c>
-      <c r="R10">
-        <v>0.25</v>
-      </c>
-      <c r="S10">
-        <v>1.19</v>
-      </c>
-      <c r="T10">
-        <v>0.4</v>
+        <v>63</v>
       </c>
       <c r="U10">
         <v>0.37</v>
@@ -3576,67 +2999,14 @@
       <c r="BW10">
         <v>0.38</v>
       </c>
+      <c r="BX10">
+        <f t="shared" si="0"/>
+        <v>9.0999999999999961</v>
+      </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11">
-        <v>31.81</v>
-      </c>
-      <c r="C11">
-        <v>19.64</v>
-      </c>
-      <c r="D11">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="E11">
-        <v>5.26</v>
-      </c>
-      <c r="F11">
-        <v>3.45</v>
-      </c>
-      <c r="G11">
-        <v>7.52</v>
-      </c>
-      <c r="H11">
-        <v>2.64</v>
-      </c>
-      <c r="I11">
-        <v>3.48</v>
-      </c>
-      <c r="J11">
-        <v>2.87</v>
-      </c>
-      <c r="K11">
-        <v>1.62</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>2.04</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>1.71</v>
-      </c>
-      <c r="P11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q11">
-        <v>1.35</v>
-      </c>
-      <c r="R11">
-        <v>0.19</v>
-      </c>
-      <c r="S11">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="T11">
-        <v>0.43</v>
+        <v>64</v>
       </c>
       <c r="U11">
         <v>0.38</v>
@@ -3803,67 +3173,14 @@
       <c r="BW11">
         <v>0.38</v>
       </c>
+      <c r="BX11">
+        <f t="shared" si="0"/>
+        <v>8.9699999999999989</v>
+      </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12">
-        <v>31.94</v>
-      </c>
-      <c r="C12">
-        <v>20.149999999999999</v>
-      </c>
-      <c r="D12">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="E12">
-        <v>5.46</v>
-      </c>
-      <c r="F12">
-        <v>3.59</v>
-      </c>
-      <c r="G12">
-        <v>7.34</v>
-      </c>
-      <c r="H12">
-        <v>2.59</v>
-      </c>
-      <c r="I12">
-        <v>3.47</v>
-      </c>
-      <c r="J12">
-        <v>2.75</v>
-      </c>
-      <c r="K12">
-        <v>1.71</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>1.71</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>1.64</v>
-      </c>
-      <c r="P12">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="Q12">
-        <v>1.28</v>
-      </c>
-      <c r="R12">
-        <v>0.15</v>
-      </c>
-      <c r="S12">
-        <v>1.06</v>
-      </c>
-      <c r="T12">
-        <v>0.41</v>
+        <v>65</v>
       </c>
       <c r="U12">
         <v>0.38</v>
@@ -4030,67 +3347,14 @@
       <c r="BW12">
         <v>0.36</v>
       </c>
+      <c r="BX12">
+        <f t="shared" si="0"/>
+        <v>8.4299999999999979</v>
+      </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13">
-        <v>31.14</v>
-      </c>
-      <c r="C13">
-        <v>20.83</v>
-      </c>
-      <c r="D13">
-        <v>4.97</v>
-      </c>
-      <c r="E13">
-        <v>5.82</v>
-      </c>
-      <c r="F13">
-        <v>3.4</v>
-      </c>
-      <c r="G13">
-        <v>8.19</v>
-      </c>
-      <c r="H13">
-        <v>2.66</v>
-      </c>
-      <c r="I13">
-        <v>3.27</v>
-      </c>
-      <c r="J13">
-        <v>2.6</v>
-      </c>
-      <c r="K13">
-        <v>1.75</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>1.6</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>1.6</v>
-      </c>
-      <c r="P13">
-        <v>1.08</v>
-      </c>
-      <c r="Q13">
-        <v>1.22</v>
-      </c>
-      <c r="R13">
-        <v>0.16</v>
-      </c>
-      <c r="S13">
-        <v>1.03</v>
-      </c>
-      <c r="T13">
-        <v>0.44</v>
+        <v>66</v>
       </c>
       <c r="U13">
         <v>0.42</v>
@@ -4257,67 +3521,14 @@
       <c r="BW13">
         <v>0.37</v>
       </c>
+      <c r="BX13">
+        <f t="shared" si="0"/>
+        <v>8.2399999999999984</v>
+      </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14">
-        <v>30.76</v>
-      </c>
-      <c r="C14">
-        <v>19.23</v>
-      </c>
-      <c r="D14">
-        <v>6.12</v>
-      </c>
-      <c r="E14">
-        <v>6.21</v>
-      </c>
-      <c r="F14">
-        <v>3.97</v>
-      </c>
-      <c r="G14">
-        <v>7.81</v>
-      </c>
-      <c r="H14">
-        <v>2.68</v>
-      </c>
-      <c r="I14">
-        <v>3.22</v>
-      </c>
-      <c r="J14">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="K14">
-        <v>1.96</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>1.73</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>1.57</v>
-      </c>
-      <c r="P14">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="Q14">
-        <v>1.29</v>
-      </c>
-      <c r="R14">
-        <v>0.16</v>
-      </c>
-      <c r="S14">
-        <v>0.97</v>
-      </c>
-      <c r="T14">
-        <v>0.44</v>
+        <v>67</v>
       </c>
       <c r="U14">
         <v>0.53</v>
@@ -4484,67 +3695,14 @@
       <c r="BW14">
         <v>0.36</v>
       </c>
+      <c r="BX14">
+        <f t="shared" si="0"/>
+        <v>8.2299999999999969</v>
+      </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15">
-        <v>30.15</v>
-      </c>
-      <c r="C15">
-        <v>18.97</v>
-      </c>
-      <c r="D15">
-        <v>7.02</v>
-      </c>
-      <c r="E15">
-        <v>6.58</v>
-      </c>
-      <c r="F15">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="G15">
-        <v>7.11</v>
-      </c>
-      <c r="H15">
-        <v>2.81</v>
-      </c>
-      <c r="I15">
-        <v>3.13</v>
-      </c>
-      <c r="J15">
-        <v>2.59</v>
-      </c>
-      <c r="K15">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>1.52</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>1.5</v>
-      </c>
-      <c r="P15">
-        <v>1.01</v>
-      </c>
-      <c r="Q15">
-        <v>1.33</v>
-      </c>
-      <c r="R15">
-        <v>0.17</v>
-      </c>
-      <c r="S15">
-        <v>0.93</v>
-      </c>
-      <c r="T15">
-        <v>0.42</v>
+        <v>68</v>
       </c>
       <c r="U15">
         <v>0.55000000000000004</v>
@@ -4711,67 +3869,14 @@
       <c r="BW15">
         <v>0.37</v>
       </c>
+      <c r="BX15">
+        <f t="shared" si="0"/>
+        <v>8.3299999999999965</v>
+      </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16">
-        <v>30.66</v>
-      </c>
-      <c r="C16">
-        <v>18.91</v>
-      </c>
-      <c r="D16">
-        <v>7.02</v>
-      </c>
-      <c r="E16">
-        <v>7.01</v>
-      </c>
-      <c r="F16">
-        <v>4.12</v>
-      </c>
-      <c r="G16">
-        <v>6.68</v>
-      </c>
-      <c r="H16">
-        <v>2.88</v>
-      </c>
-      <c r="I16">
-        <v>3.23</v>
-      </c>
-      <c r="J16">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="K16">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1.44</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>1.46</v>
-      </c>
-      <c r="P16">
-        <v>0.91</v>
-      </c>
-      <c r="Q16">
-        <v>1.24</v>
-      </c>
-      <c r="R16">
-        <v>0.15</v>
-      </c>
-      <c r="S16">
-        <v>0.91</v>
-      </c>
-      <c r="T16">
-        <v>0.43</v>
+        <v>69</v>
       </c>
       <c r="U16">
         <v>0.51</v>
@@ -4938,67 +4043,14 @@
       <c r="BW16">
         <v>0.41</v>
       </c>
+      <c r="BX16">
+        <f t="shared" si="0"/>
+        <v>8.1899999999999977</v>
+      </c>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17">
-        <v>30.7</v>
-      </c>
-      <c r="C17">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="D17">
-        <v>7.34</v>
-      </c>
-      <c r="E17">
-        <v>7.15</v>
-      </c>
-      <c r="F17">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="G17">
-        <v>6.14</v>
-      </c>
-      <c r="H17">
-        <v>2.81</v>
-      </c>
-      <c r="I17">
-        <v>3.26</v>
-      </c>
-      <c r="J17">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K17">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>1.33</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>1.42</v>
-      </c>
-      <c r="P17">
-        <v>0.91</v>
-      </c>
-      <c r="Q17">
-        <v>1.19</v>
-      </c>
-      <c r="R17">
-        <v>0.16</v>
-      </c>
-      <c r="S17">
-        <v>0.88</v>
-      </c>
-      <c r="T17">
-        <v>0.43</v>
+        <v>70</v>
       </c>
       <c r="U17">
         <v>0.47</v>
@@ -5165,67 +4217,14 @@
       <c r="BW17">
         <v>0.37</v>
       </c>
+      <c r="BX17">
+        <f t="shared" si="0"/>
+        <v>7.9299999999999971</v>
+      </c>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18">
-        <v>30.9</v>
-      </c>
-      <c r="C18">
-        <v>20.45</v>
-      </c>
-      <c r="D18">
-        <v>7.12</v>
-      </c>
-      <c r="E18">
-        <v>7.1</v>
-      </c>
-      <c r="F18">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="G18">
-        <v>5.66</v>
-      </c>
-      <c r="H18">
-        <v>2.68</v>
-      </c>
-      <c r="I18">
-        <v>3.2</v>
-      </c>
-      <c r="J18">
-        <v>2.09</v>
-      </c>
-      <c r="K18">
-        <v>2.46</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>1.29</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>1.4</v>
-      </c>
-      <c r="P18">
-        <v>0.94</v>
-      </c>
-      <c r="Q18">
-        <v>1.06</v>
-      </c>
-      <c r="R18">
-        <v>0.31</v>
-      </c>
-      <c r="S18">
-        <v>0.9</v>
-      </c>
-      <c r="T18">
-        <v>0.43</v>
+        <v>71</v>
       </c>
       <c r="U18">
         <v>0.46</v>
@@ -5392,67 +4391,14 @@
       <c r="BW18">
         <v>0.34</v>
       </c>
+      <c r="BX18">
+        <f t="shared" si="0"/>
+        <v>7.8499999999999961</v>
+      </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19">
-        <v>30.8</v>
-      </c>
-      <c r="C19">
-        <v>20.66</v>
-      </c>
-      <c r="D19">
-        <v>7.39</v>
-      </c>
-      <c r="E19">
-        <v>7.57</v>
-      </c>
-      <c r="F19">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="G19">
-        <v>4.76</v>
-      </c>
-      <c r="H19">
-        <v>2.67</v>
-      </c>
-      <c r="I19">
-        <v>3.11</v>
-      </c>
-      <c r="J19">
-        <v>2.06</v>
-      </c>
-      <c r="K19">
-        <v>2.63</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>1.24</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>1.36</v>
-      </c>
-      <c r="P19">
-        <v>0.97</v>
-      </c>
-      <c r="Q19">
-        <v>1.03</v>
-      </c>
-      <c r="R19">
-        <v>0.45</v>
-      </c>
-      <c r="S19">
-        <v>0.84</v>
-      </c>
-      <c r="T19">
-        <v>0.45</v>
+        <v>72</v>
       </c>
       <c r="U19">
         <v>0.48</v>
@@ -5619,67 +4565,14 @@
       <c r="BW19">
         <v>0.34</v>
       </c>
+      <c r="BX19">
+        <f t="shared" si="0"/>
+        <v>7.6899999999999968</v>
+      </c>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20">
-        <v>30.07</v>
-      </c>
-      <c r="C20">
-        <v>22.34</v>
-      </c>
-      <c r="D20">
-        <v>7.26</v>
-      </c>
-      <c r="E20">
-        <v>7.37</v>
-      </c>
-      <c r="F20">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="G20">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="H20">
-        <v>2.78</v>
-      </c>
-      <c r="I20">
-        <v>3.12</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>2.69</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>1.25</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>1.29</v>
-      </c>
-      <c r="P20">
-        <v>0.93</v>
-      </c>
-      <c r="Q20">
-        <v>0.93</v>
-      </c>
-      <c r="R20">
-        <v>0.45</v>
-      </c>
-      <c r="S20">
-        <v>0.83</v>
-      </c>
-      <c r="T20">
-        <v>0.48</v>
+        <v>73</v>
       </c>
       <c r="U20">
         <v>0.45</v>
@@ -5846,67 +4739,14 @@
       <c r="BW20">
         <v>0.32</v>
       </c>
+      <c r="BX20">
+        <f t="shared" si="0"/>
+        <v>7.2899999999999974</v>
+      </c>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21">
-        <v>28.34</v>
-      </c>
-      <c r="C21">
-        <v>24.44</v>
-      </c>
-      <c r="D21">
-        <v>7.83</v>
-      </c>
-      <c r="E21">
-        <v>6.31</v>
-      </c>
-      <c r="F21">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="G21">
-        <v>5.27</v>
-      </c>
-      <c r="H21">
-        <v>3.02</v>
-      </c>
-      <c r="I21">
-        <v>3.07</v>
-      </c>
-      <c r="J21">
-        <v>2.15</v>
-      </c>
-      <c r="K21">
-        <v>3.42</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>1.29</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0.84</v>
-      </c>
-      <c r="P21">
-        <v>0.67</v>
-      </c>
-      <c r="Q21">
-        <v>0.85</v>
-      </c>
-      <c r="R21">
-        <v>0.34</v>
-      </c>
-      <c r="S21">
-        <v>0.83</v>
-      </c>
-      <c r="T21">
-        <v>0.51</v>
+        <v>74</v>
       </c>
       <c r="U21">
         <v>0.47</v>
@@ -6073,67 +4913,14 @@
       <c r="BW21">
         <v>0.24</v>
       </c>
+      <c r="BX21">
+        <f t="shared" si="0"/>
+        <v>6.6099999999999959</v>
+      </c>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22">
-        <v>30.91</v>
-      </c>
-      <c r="C22">
-        <v>21.98</v>
-      </c>
-      <c r="D22">
-        <v>8.44</v>
-      </c>
-      <c r="E22">
-        <v>7.52</v>
-      </c>
-      <c r="F22">
-        <v>4.87</v>
-      </c>
-      <c r="G22">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="H22">
-        <v>2.75</v>
-      </c>
-      <c r="I22">
-        <v>2.79</v>
-      </c>
-      <c r="J22">
-        <v>1.94</v>
-      </c>
-      <c r="K22">
-        <v>3.3</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>1.21</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0.83</v>
-      </c>
-      <c r="P22">
-        <v>0.65</v>
-      </c>
-      <c r="Q22">
-        <v>0.71</v>
-      </c>
-      <c r="R22">
-        <v>0.52</v>
-      </c>
-      <c r="S22">
-        <v>0.78</v>
-      </c>
-      <c r="T22">
-        <v>0.5</v>
+        <v>75</v>
       </c>
       <c r="U22">
         <v>0.43</v>
@@ -6300,67 +5087,14 @@
       <c r="BW22">
         <v>0.19</v>
       </c>
+      <c r="BX22">
+        <f t="shared" si="0"/>
+        <v>5.7699999999999951</v>
+      </c>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23">
-        <v>32.159999999999997</v>
-      </c>
-      <c r="C23">
-        <v>22.85</v>
-      </c>
-      <c r="D23">
-        <v>7.88</v>
-      </c>
-      <c r="E23">
-        <v>7.87</v>
-      </c>
-      <c r="F23">
-        <v>4.49</v>
-      </c>
-      <c r="G23">
-        <v>4.43</v>
-      </c>
-      <c r="H23">
-        <v>2.72</v>
-      </c>
-      <c r="I23">
-        <v>2.78</v>
-      </c>
-      <c r="J23">
-        <v>1.77</v>
-      </c>
-      <c r="K23">
-        <v>3.04</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0.79</v>
-      </c>
-      <c r="P23">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Q23">
-        <v>0.6</v>
-      </c>
-      <c r="R23">
-        <v>0.5</v>
-      </c>
-      <c r="S23">
-        <v>0.76</v>
-      </c>
-      <c r="T23">
-        <v>0.49</v>
+        <v>76</v>
       </c>
       <c r="U23">
         <v>0.39</v>
@@ -6527,67 +5261,14 @@
       <c r="BW23">
         <v>0.17</v>
       </c>
+      <c r="BX23">
+        <f t="shared" si="0"/>
+        <v>5.1499999999999968</v>
+      </c>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24">
-        <v>31.52</v>
-      </c>
-      <c r="C24">
-        <v>23.28</v>
-      </c>
-      <c r="D24">
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="E24">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="F24">
-        <v>4.46</v>
-      </c>
-      <c r="G24">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="H24">
-        <v>2.77</v>
-      </c>
-      <c r="I24">
-        <v>2.74</v>
-      </c>
-      <c r="J24">
-        <v>1.7</v>
-      </c>
-      <c r="K24">
-        <v>3.12</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>1.19</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0.75</v>
-      </c>
-      <c r="P24">
-        <v>0.54</v>
-      </c>
-      <c r="Q24">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="R24">
-        <v>0.52</v>
-      </c>
-      <c r="S24">
-        <v>0.72</v>
-      </c>
-      <c r="T24">
-        <v>0.53</v>
+        <v>77</v>
       </c>
       <c r="U24">
         <v>0.39</v>
@@ -6754,67 +5435,14 @@
       <c r="BW24">
         <v>0.17</v>
       </c>
+      <c r="BX24">
+        <f t="shared" si="0"/>
+        <v>4.8099999999999934</v>
+      </c>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25">
-        <v>31.77</v>
-      </c>
-      <c r="C25">
-        <v>22.4</v>
-      </c>
-      <c r="D25">
-        <v>7.52</v>
-      </c>
-      <c r="E25">
-        <v>8.57</v>
-      </c>
-      <c r="F25">
-        <v>4.41</v>
-      </c>
-      <c r="G25">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="H25">
-        <v>2.72</v>
-      </c>
-      <c r="I25">
-        <v>2.89</v>
-      </c>
-      <c r="J25">
-        <v>1.51</v>
-      </c>
-      <c r="K25">
-        <v>2.65</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>1.19</v>
-      </c>
-      <c r="N25">
-        <v>0.02</v>
-      </c>
-      <c r="O25">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P25">
-        <v>0.91</v>
-      </c>
-      <c r="Q25">
-        <v>0.68</v>
-      </c>
-      <c r="R25">
-        <v>0.6</v>
-      </c>
-      <c r="S25">
-        <v>0.66</v>
-      </c>
-      <c r="T25">
-        <v>0.52</v>
+        <v>78</v>
       </c>
       <c r="U25">
         <v>0.48</v>
@@ -6981,67 +5609,14 @@
       <c r="BW25">
         <v>0.28999999999999998</v>
       </c>
+      <c r="BX25">
+        <f t="shared" si="0"/>
+        <v>5.729999999999996</v>
+      </c>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26">
-        <v>32.159999999999997</v>
-      </c>
-      <c r="C26">
-        <v>22.76</v>
-      </c>
-      <c r="D26">
-        <v>7.21</v>
-      </c>
-      <c r="E26">
-        <v>8.7200000000000006</v>
-      </c>
-      <c r="F26">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="G26">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="H26">
-        <v>2.62</v>
-      </c>
-      <c r="I26">
-        <v>2.87</v>
-      </c>
-      <c r="J26">
-        <v>1.41</v>
-      </c>
-      <c r="K26">
-        <v>2.58</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="N26">
-        <v>0.03</v>
-      </c>
-      <c r="O26">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="P26">
-        <v>0.93</v>
-      </c>
-      <c r="Q26">
-        <v>0.63</v>
-      </c>
-      <c r="R26">
-        <v>0.6</v>
-      </c>
-      <c r="S26">
-        <v>0.66</v>
-      </c>
-      <c r="T26">
-        <v>0.55000000000000004</v>
+        <v>79</v>
       </c>
       <c r="U26">
         <v>0.43</v>
@@ -7208,67 +5783,14 @@
       <c r="BW26">
         <v>0.28000000000000003</v>
       </c>
+      <c r="BX26">
+        <f t="shared" si="0"/>
+        <v>5.4899999999999967</v>
+      </c>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27">
-        <v>31.55</v>
-      </c>
-      <c r="C27">
-        <v>22.66</v>
-      </c>
-      <c r="D27">
-        <v>7.46</v>
-      </c>
-      <c r="E27">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="F27">
-        <v>4.42</v>
-      </c>
-      <c r="G27">
-        <v>4.49</v>
-      </c>
-      <c r="H27">
-        <v>2.68</v>
-      </c>
-      <c r="I27">
-        <v>2.89</v>
-      </c>
-      <c r="J27">
-        <v>1.35</v>
-      </c>
-      <c r="K27">
-        <v>2.73</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="N27">
-        <v>0.03</v>
-      </c>
-      <c r="O27">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="P27">
-        <v>0.95</v>
-      </c>
-      <c r="Q27">
-        <v>0.62</v>
-      </c>
-      <c r="R27">
-        <v>0.61</v>
-      </c>
-      <c r="S27">
-        <v>0.62</v>
-      </c>
-      <c r="T27">
-        <v>0.6</v>
+        <v>80</v>
       </c>
       <c r="U27">
         <v>0.47</v>
@@ -7435,67 +5957,14 @@
       <c r="BW27">
         <v>0.27</v>
       </c>
+      <c r="BX27">
+        <f t="shared" si="0"/>
+        <v>5.1399999999999935</v>
+      </c>
     </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28">
-        <v>31.98</v>
-      </c>
-      <c r="C28">
-        <v>22.04</v>
-      </c>
-      <c r="D28">
-        <v>7.39</v>
-      </c>
-      <c r="E28">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="F28">
-        <v>4.21</v>
-      </c>
-      <c r="G28">
-        <v>5.03</v>
-      </c>
-      <c r="H28">
-        <v>2.69</v>
-      </c>
-      <c r="I28">
-        <v>2.81</v>
-      </c>
-      <c r="J28">
-        <v>1.33</v>
-      </c>
-      <c r="K28">
-        <v>2.82</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="N28">
-        <v>0.04</v>
-      </c>
-      <c r="O28">
-        <v>1.01</v>
-      </c>
-      <c r="P28">
-        <v>0.88</v>
-      </c>
-      <c r="Q28">
-        <v>0.6</v>
-      </c>
-      <c r="R28">
-        <v>0.6</v>
-      </c>
-      <c r="S28">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="T28">
-        <v>0.63</v>
+        <v>81</v>
       </c>
       <c r="U28">
         <v>0.42</v>
@@ -7662,67 +6131,14 @@
       <c r="BW28">
         <v>0.26</v>
       </c>
+      <c r="BX28">
+        <f t="shared" si="0"/>
+        <v>5.1899999999999951</v>
+      </c>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29">
-        <v>31.13</v>
-      </c>
-      <c r="C29">
-        <v>22.01</v>
-      </c>
-      <c r="D29">
-        <v>7.76</v>
-      </c>
-      <c r="E29">
-        <v>9.15</v>
-      </c>
-      <c r="F29">
-        <v>4.46</v>
-      </c>
-      <c r="G29">
-        <v>5.36</v>
-      </c>
-      <c r="H29">
-        <v>2.63</v>
-      </c>
-      <c r="I29">
-        <v>2.56</v>
-      </c>
-      <c r="J29">
-        <v>1.3</v>
-      </c>
-      <c r="K29">
-        <v>3.26</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="N29">
-        <v>0.04</v>
-      </c>
-      <c r="O29">
-        <v>0.94</v>
-      </c>
-      <c r="P29">
-        <v>0.87</v>
-      </c>
-      <c r="Q29">
-        <v>0.66</v>
-      </c>
-      <c r="R29">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="S29">
-        <v>0.54</v>
-      </c>
-      <c r="T29">
-        <v>0.62</v>
+        <v>82</v>
       </c>
       <c r="U29">
         <v>0.4</v>
@@ -7889,67 +6305,14 @@
       <c r="BW29">
         <v>0.25</v>
       </c>
+      <c r="BX29">
+        <f t="shared" si="0"/>
+        <v>4.9799999999999951</v>
+      </c>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30">
-        <v>31.47</v>
-      </c>
-      <c r="C30">
-        <v>22.17</v>
-      </c>
-      <c r="D30">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="E30">
-        <v>9.02</v>
-      </c>
-      <c r="F30">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="G30">
-        <v>3.69</v>
-      </c>
-      <c r="H30">
-        <v>2.56</v>
-      </c>
-      <c r="I30">
-        <v>2.59</v>
-      </c>
-      <c r="J30">
-        <v>1.22</v>
-      </c>
-      <c r="K30">
-        <v>3.31</v>
-      </c>
-      <c r="L30">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M30">
-        <v>1.08</v>
-      </c>
-      <c r="N30">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="O30">
-        <v>0.9</v>
-      </c>
-      <c r="P30">
-        <v>0.87</v>
-      </c>
-      <c r="Q30">
-        <v>0.59</v>
-      </c>
-      <c r="R30">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="S30">
-        <v>0.52</v>
-      </c>
-      <c r="T30">
-        <v>0.62</v>
+        <v>83</v>
       </c>
       <c r="U30">
         <v>0.46</v>
@@ -8116,67 +6479,14 @@
       <c r="BW30">
         <v>0.27</v>
       </c>
+      <c r="BX30">
+        <f t="shared" si="0"/>
+        <v>5.2999999999999936</v>
+      </c>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31">
-        <v>31.18</v>
-      </c>
-      <c r="C31">
-        <v>22.48</v>
-      </c>
-      <c r="D31">
-        <v>8.26</v>
-      </c>
-      <c r="E31">
-        <v>10.02</v>
-      </c>
-      <c r="F31">
-        <v>4.57</v>
-      </c>
-      <c r="G31">
-        <v>3.16</v>
-      </c>
-      <c r="H31">
-        <v>2.48</v>
-      </c>
-      <c r="I31">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="J31">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="K31">
-        <v>3.32</v>
-      </c>
-      <c r="L31">
-        <v>0.1</v>
-      </c>
-      <c r="M31">
-        <v>1.02</v>
-      </c>
-      <c r="N31">
-        <v>0.49</v>
-      </c>
-      <c r="O31">
-        <v>0.85</v>
-      </c>
-      <c r="P31">
-        <v>0.8</v>
-      </c>
-      <c r="Q31">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="R31">
-        <v>0.65</v>
-      </c>
-      <c r="S31">
-        <v>0.47</v>
-      </c>
-      <c r="T31">
-        <v>0.62</v>
+        <v>84</v>
       </c>
       <c r="U31">
         <v>0.45</v>
@@ -8343,67 +6653,14 @@
       <c r="BW31">
         <v>0.26</v>
       </c>
+      <c r="BX31">
+        <f t="shared" si="0"/>
+        <v>5.3399999999999945</v>
+      </c>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32">
-        <v>31.49</v>
-      </c>
-      <c r="C32">
-        <v>22.09</v>
-      </c>
-      <c r="D32">
-        <v>7.79</v>
-      </c>
-      <c r="E32">
-        <v>10.02</v>
-      </c>
-      <c r="F32">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G32">
-        <v>3.27</v>
-      </c>
-      <c r="H32">
-        <v>2.41</v>
-      </c>
-      <c r="I32">
-        <v>2.4</v>
-      </c>
-      <c r="J32">
-        <v>0.96</v>
-      </c>
-      <c r="K32">
-        <v>3.15</v>
-      </c>
-      <c r="L32">
-        <v>0.1</v>
-      </c>
-      <c r="M32">
-        <v>0.95</v>
-      </c>
-      <c r="N32">
-        <v>0.54</v>
-      </c>
-      <c r="O32">
-        <v>0.84</v>
-      </c>
-      <c r="P32">
-        <v>0.74</v>
-      </c>
-      <c r="Q32">
-        <v>0.5</v>
-      </c>
-      <c r="R32">
-        <v>0.7</v>
-      </c>
-      <c r="S32">
-        <v>0.42</v>
-      </c>
-      <c r="T32">
-        <v>2.35</v>
+        <v>85</v>
       </c>
       <c r="U32">
         <v>0.42</v>
@@ -8570,67 +6827,14 @@
       <c r="BW32">
         <v>0.28000000000000003</v>
       </c>
+      <c r="BX32">
+        <f t="shared" si="0"/>
+        <v>5.1999999999999931</v>
+      </c>
     </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33">
-        <v>31.36</v>
-      </c>
-      <c r="C33">
-        <v>22.9</v>
-      </c>
-      <c r="D33">
-        <v>8.16</v>
-      </c>
-      <c r="E33">
-        <v>10.18</v>
-      </c>
-      <c r="F33">
-        <v>4.42</v>
-      </c>
-      <c r="G33">
-        <v>3.21</v>
-      </c>
-      <c r="H33">
-        <v>2.4</v>
-      </c>
-      <c r="I33">
-        <v>2.4</v>
-      </c>
-      <c r="J33">
-        <v>0.97</v>
-      </c>
-      <c r="K33">
-        <v>3.41</v>
-      </c>
-      <c r="L33">
-        <v>0.08</v>
-      </c>
-      <c r="M33">
-        <v>0.97</v>
-      </c>
-      <c r="N33">
-        <v>0.78</v>
-      </c>
-      <c r="O33">
-        <v>0.83</v>
-      </c>
-      <c r="P33">
-        <v>0.75</v>
-      </c>
-      <c r="Q33">
-        <v>0.45</v>
-      </c>
-      <c r="R33">
-        <v>0.73</v>
-      </c>
-      <c r="S33">
-        <v>0.4</v>
-      </c>
-      <c r="T33">
-        <v>0.66</v>
+        <v>86</v>
       </c>
       <c r="U33">
         <v>0.45</v>
@@ -8797,67 +7001,14 @@
       <c r="BW33">
         <v>0.25</v>
       </c>
+      <c r="BX33">
+        <f t="shared" si="0"/>
+        <v>4.9399999999999915</v>
+      </c>
     </row>
-    <row r="34" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34">
-        <v>31.37</v>
-      </c>
-      <c r="C34">
-        <v>24.79</v>
-      </c>
-      <c r="D34">
-        <v>7.73</v>
-      </c>
-      <c r="E34">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="F34">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="G34">
-        <v>2.67</v>
-      </c>
-      <c r="H34">
-        <v>2.5</v>
-      </c>
-      <c r="I34">
-        <v>2.54</v>
-      </c>
-      <c r="J34">
-        <v>0.87</v>
-      </c>
-      <c r="K34">
-        <v>3.19</v>
-      </c>
-      <c r="L34">
-        <v>0.08</v>
-      </c>
-      <c r="M34">
-        <v>0.9</v>
-      </c>
-      <c r="N34">
-        <v>0.84</v>
-      </c>
-      <c r="O34">
-        <v>0.77</v>
-      </c>
-      <c r="P34">
-        <v>0.7</v>
-      </c>
-      <c r="Q34">
-        <v>0.39</v>
-      </c>
-      <c r="R34">
-        <v>0.74</v>
-      </c>
-      <c r="S34">
-        <v>0.38</v>
-      </c>
-      <c r="T34">
-        <v>0.75</v>
+        <v>87</v>
       </c>
       <c r="U34">
         <v>0.43</v>
@@ -9024,67 +7175,14 @@
       <c r="BW34">
         <v>0.22</v>
       </c>
+      <c r="BX34">
+        <f t="shared" si="0"/>
+        <v>4.6099999999999941</v>
+      </c>
     </row>
-    <row r="35" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35">
-        <v>31.29</v>
-      </c>
-      <c r="C35">
-        <v>24.76</v>
-      </c>
-      <c r="D35">
-        <v>8.1</v>
-      </c>
-      <c r="E35">
-        <v>10.61</v>
-      </c>
-      <c r="F35">
-        <v>4.25</v>
-      </c>
-      <c r="G35">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="H35">
-        <v>2.42</v>
-      </c>
-      <c r="I35">
-        <v>2.4</v>
-      </c>
-      <c r="J35">
-        <v>0.86</v>
-      </c>
-      <c r="K35">
-        <v>3.02</v>
-      </c>
-      <c r="L35">
-        <v>0.08</v>
-      </c>
-      <c r="M35">
-        <v>0.88</v>
-      </c>
-      <c r="N35">
-        <v>0.88</v>
-      </c>
-      <c r="O35">
-        <v>0.8</v>
-      </c>
-      <c r="P35">
-        <v>0.69</v>
-      </c>
-      <c r="Q35">
-        <v>0.35</v>
-      </c>
-      <c r="R35">
-        <v>0.79</v>
-      </c>
-      <c r="S35">
-        <v>0.38</v>
-      </c>
-      <c r="T35">
-        <v>0.69</v>
+        <v>88</v>
       </c>
       <c r="U35">
         <v>0.47</v>
@@ -9251,67 +7349,14 @@
       <c r="BW35">
         <v>0.22</v>
       </c>
+      <c r="BX35">
+        <f t="shared" si="0"/>
+        <v>4.5599999999999943</v>
+      </c>
     </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36">
-        <v>30.91</v>
-      </c>
-      <c r="C36">
-        <v>25.89</v>
-      </c>
-      <c r="D36">
-        <v>7.8</v>
-      </c>
-      <c r="E36">
-        <v>10.98</v>
-      </c>
-      <c r="F36">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="G36">
-        <v>1.95</v>
-      </c>
-      <c r="H36">
-        <v>2.36</v>
-      </c>
-      <c r="I36">
-        <v>2.34</v>
-      </c>
-      <c r="J36">
-        <v>0.77</v>
-      </c>
-      <c r="K36">
-        <v>2.89</v>
-      </c>
-      <c r="L36">
-        <v>0.11</v>
-      </c>
-      <c r="M36">
-        <v>0.81</v>
-      </c>
-      <c r="N36">
-        <v>0.89</v>
-      </c>
-      <c r="O36">
-        <v>0.8</v>
-      </c>
-      <c r="P36">
-        <v>0.69</v>
-      </c>
-      <c r="Q36">
-        <v>0.34</v>
-      </c>
-      <c r="R36">
-        <v>0.78</v>
-      </c>
-      <c r="S36">
-        <v>0.37</v>
-      </c>
-      <c r="T36">
-        <v>0.7</v>
+        <v>89</v>
       </c>
       <c r="U36">
         <v>0.44</v>
@@ -9478,67 +7523,14 @@
       <c r="BW36">
         <v>0.21</v>
       </c>
+      <c r="BX36">
+        <f t="shared" si="0"/>
+        <v>4.2999999999999963</v>
+      </c>
     </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37">
-        <v>30.8</v>
-      </c>
-      <c r="C37">
-        <v>27.03</v>
-      </c>
-      <c r="D37">
-        <v>7.7</v>
-      </c>
-      <c r="E37">
-        <v>10.7</v>
-      </c>
-      <c r="F37">
-        <v>4.3</v>
-      </c>
-      <c r="G37">
-        <v>1.83</v>
-      </c>
-      <c r="H37">
-        <v>2.35</v>
-      </c>
-      <c r="I37">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="J37">
-        <v>0.74</v>
-      </c>
-      <c r="K37">
-        <v>2.87</v>
-      </c>
-      <c r="L37">
-        <v>0.11</v>
-      </c>
-      <c r="M37">
-        <v>0.72</v>
-      </c>
-      <c r="N37">
-        <v>0.93</v>
-      </c>
-      <c r="O37">
-        <v>0.76</v>
-      </c>
-      <c r="P37">
-        <v>0.66</v>
-      </c>
-      <c r="Q37">
-        <v>0.31</v>
-      </c>
-      <c r="R37">
-        <v>0.78</v>
-      </c>
-      <c r="S37">
-        <v>0.36</v>
-      </c>
-      <c r="T37">
-        <v>0.73</v>
+        <v>90</v>
       </c>
       <c r="U37">
         <v>0.4</v>
@@ -9705,67 +7697,14 @@
       <c r="BW37">
         <v>0.22</v>
       </c>
+      <c r="BX37">
+        <f t="shared" si="0"/>
+        <v>4.0199999999999951</v>
+      </c>
     </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38">
-        <v>30.41</v>
-      </c>
-      <c r="C38">
-        <v>28.79</v>
-      </c>
-      <c r="D38">
-        <v>7.6</v>
-      </c>
-      <c r="E38">
-        <v>10.28</v>
-      </c>
-      <c r="F38">
-        <v>4.2</v>
-      </c>
-      <c r="G38">
-        <v>1.55</v>
-      </c>
-      <c r="H38">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="I38">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="J38">
-        <v>0.71</v>
-      </c>
-      <c r="K38">
-        <v>2.75</v>
-      </c>
-      <c r="L38">
-        <v>0.1</v>
-      </c>
-      <c r="M38">
-        <v>0.69</v>
-      </c>
-      <c r="N38">
-        <v>0.9</v>
-      </c>
-      <c r="O38">
-        <v>0.76</v>
-      </c>
-      <c r="P38">
-        <v>0.7</v>
-      </c>
-      <c r="Q38">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="R38">
-        <v>0.8</v>
-      </c>
-      <c r="S38">
-        <v>0.35</v>
-      </c>
-      <c r="T38">
-        <v>0.75</v>
+        <v>91</v>
       </c>
       <c r="U38">
         <v>0.38</v>
@@ -9932,67 +7871,14 @@
       <c r="BW38">
         <v>0.22</v>
       </c>
+      <c r="BX38">
+        <f t="shared" si="0"/>
+        <v>3.5799999999999961</v>
+      </c>
     </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39">
-        <v>30.18</v>
-      </c>
-      <c r="C39">
-        <v>26.72</v>
-      </c>
-      <c r="D39">
-        <v>8.36</v>
-      </c>
-      <c r="E39">
-        <v>10.39</v>
-      </c>
-      <c r="F39">
-        <v>4.7</v>
-      </c>
-      <c r="G39">
-        <v>1.8</v>
-      </c>
-      <c r="H39">
-        <v>2.46</v>
-      </c>
-      <c r="I39">
-        <v>2.19</v>
-      </c>
-      <c r="J39">
-        <v>0.77</v>
-      </c>
-      <c r="K39">
-        <v>3.12</v>
-      </c>
-      <c r="L39">
-        <v>0.11</v>
-      </c>
-      <c r="M39">
-        <v>0.73</v>
-      </c>
-      <c r="N39">
-        <v>1.04</v>
-      </c>
-      <c r="O39">
-        <v>0.78</v>
-      </c>
-      <c r="P39">
-        <v>0.76</v>
-      </c>
-      <c r="Q39">
-        <v>0.31</v>
-      </c>
-      <c r="R39">
-        <v>0.81</v>
-      </c>
-      <c r="S39">
-        <v>0.36</v>
-      </c>
-      <c r="T39">
-        <v>0.7</v>
+        <v>92</v>
       </c>
       <c r="U39">
         <v>0.44</v>
@@ -10159,67 +8045,14 @@
       <c r="BW39">
         <v>0.23</v>
       </c>
+      <c r="BX39">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999951</v>
+      </c>
     </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40">
-        <v>31.06</v>
-      </c>
-      <c r="C40">
-        <v>25.26</v>
-      </c>
-      <c r="D40">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="E40">
-        <v>10.69</v>
-      </c>
-      <c r="F40">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="G40">
-        <v>1.81</v>
-      </c>
-      <c r="H40">
-        <v>2.57</v>
-      </c>
-      <c r="I40">
-        <v>2.11</v>
-      </c>
-      <c r="J40">
-        <v>0.75</v>
-      </c>
-      <c r="K40">
-        <v>3.18</v>
-      </c>
-      <c r="L40">
-        <v>0.1</v>
-      </c>
-      <c r="M40">
-        <v>0.74</v>
-      </c>
-      <c r="N40">
-        <v>1.04</v>
-      </c>
-      <c r="O40">
-        <v>0.78</v>
-      </c>
-      <c r="P40">
-        <v>0.75</v>
-      </c>
-      <c r="Q40">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="R40">
-        <v>0.77</v>
-      </c>
-      <c r="S40">
-        <v>0.35</v>
-      </c>
-      <c r="T40">
-        <v>0.68</v>
+        <v>93</v>
       </c>
       <c r="U40">
         <v>0.5</v>
@@ -10386,67 +8219,14 @@
       <c r="BW40">
         <v>0.22</v>
       </c>
+      <c r="BX40">
+        <f t="shared" si="0"/>
+        <v>3.8599999999999959</v>
+      </c>
     </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41">
-        <v>30.95</v>
-      </c>
-      <c r="C41">
-        <v>24.82</v>
-      </c>
-      <c r="D41">
-        <v>8.94</v>
-      </c>
-      <c r="E41">
-        <v>10.75</v>
-      </c>
-      <c r="F41">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="G41">
-        <v>1.8</v>
-      </c>
-      <c r="H41">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="I41">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="J41">
-        <v>0.74</v>
-      </c>
-      <c r="K41">
-        <v>3.46</v>
-      </c>
-      <c r="L41">
-        <v>0.1</v>
-      </c>
-      <c r="M41">
-        <v>0.76</v>
-      </c>
-      <c r="N41">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="O41">
-        <v>0.75</v>
-      </c>
-      <c r="P41">
-        <v>0.72</v>
-      </c>
-      <c r="Q41">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="R41">
-        <v>0.76</v>
-      </c>
-      <c r="S41">
-        <v>0.33</v>
-      </c>
-      <c r="T41">
-        <v>0.65</v>
+        <v>94</v>
       </c>
       <c r="U41">
         <v>0.53</v>
@@ -10613,67 +8393,14 @@
       <c r="BW41">
         <v>0.21</v>
       </c>
+      <c r="BX41">
+        <f t="shared" si="0"/>
+        <v>3.889999999999997</v>
+      </c>
     </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42">
-        <v>31.04</v>
-      </c>
-      <c r="C42">
-        <v>25.15</v>
-      </c>
-      <c r="D42">
-        <v>8.9</v>
-      </c>
-      <c r="E42">
-        <v>10.73</v>
-      </c>
-      <c r="F42">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="G42">
-        <v>1.81</v>
-      </c>
-      <c r="H42">
-        <v>2.39</v>
-      </c>
-      <c r="I42">
-        <v>1.96</v>
-      </c>
-      <c r="J42">
-        <v>0.72</v>
-      </c>
-      <c r="K42">
-        <v>3.38</v>
-      </c>
-      <c r="L42">
-        <v>0.1</v>
-      </c>
-      <c r="M42">
-        <v>0.74</v>
-      </c>
-      <c r="N42">
-        <v>1.18</v>
-      </c>
-      <c r="O42">
-        <v>0.73</v>
-      </c>
-      <c r="P42">
-        <v>0.7</v>
-      </c>
-      <c r="Q42">
-        <v>0.27</v>
-      </c>
-      <c r="R42">
-        <v>0.75</v>
-      </c>
-      <c r="S42">
-        <v>0.32</v>
-      </c>
-      <c r="T42">
-        <v>0.63</v>
+        <v>95</v>
       </c>
       <c r="U42">
         <v>0.54</v>
@@ -10840,67 +8567,14 @@
       <c r="BW42">
         <v>0.2</v>
       </c>
+      <c r="BX42">
+        <f t="shared" si="0"/>
+        <v>3.8099999999999969</v>
+      </c>
     </row>
-    <row r="43" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43">
-        <v>30.57</v>
-      </c>
-      <c r="C43">
-        <v>24.98</v>
-      </c>
-      <c r="D43">
-        <v>9.49</v>
-      </c>
-      <c r="E43">
-        <v>10.58</v>
-      </c>
-      <c r="F43">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="G43">
-        <v>1.67</v>
-      </c>
-      <c r="H43">
-        <v>2.27</v>
-      </c>
-      <c r="I43">
-        <v>1.88</v>
-      </c>
-      <c r="J43">
-        <v>0.67</v>
-      </c>
-      <c r="K43">
-        <v>3.5</v>
-      </c>
-      <c r="L43">
-        <v>0.1</v>
-      </c>
-      <c r="M43">
-        <v>0.74</v>
-      </c>
-      <c r="N43">
-        <v>1.45</v>
-      </c>
-      <c r="O43">
-        <v>0.69</v>
-      </c>
-      <c r="P43">
-        <v>0.67</v>
-      </c>
-      <c r="Q43">
-        <v>0.26</v>
-      </c>
-      <c r="R43">
-        <v>0.81</v>
-      </c>
-      <c r="S43">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="T43">
-        <v>0.63</v>
+        <v>96</v>
       </c>
       <c r="U43">
         <v>0.6</v>
@@ -11067,67 +8741,14 @@
       <c r="BW43">
         <v>0.19</v>
       </c>
+      <c r="BX43">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999963</v>
+      </c>
     </row>
-    <row r="44" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44">
-        <v>30.25</v>
-      </c>
-      <c r="C44">
-        <v>26.53</v>
-      </c>
-      <c r="D44">
-        <v>9.67</v>
-      </c>
-      <c r="E44">
-        <v>10.44</v>
-      </c>
-      <c r="F44">
-        <v>4.83</v>
-      </c>
-      <c r="G44">
-        <v>1.84</v>
-      </c>
-      <c r="H44">
-        <v>2.21</v>
-      </c>
-      <c r="I44">
-        <v>1.79</v>
-      </c>
-      <c r="J44">
-        <v>0.65</v>
-      </c>
-      <c r="K44">
-        <v>2.54</v>
-      </c>
-      <c r="L44">
-        <v>0.1</v>
-      </c>
-      <c r="M44">
-        <v>0.69</v>
-      </c>
-      <c r="N44">
-        <v>1.55</v>
-      </c>
-      <c r="O44">
-        <v>0.67</v>
-      </c>
-      <c r="P44">
-        <v>0.64</v>
-      </c>
-      <c r="Q44">
-        <v>0.24</v>
-      </c>
-      <c r="R44">
-        <v>0.85</v>
-      </c>
-      <c r="S44">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="T44">
-        <v>0.63</v>
+        <v>97</v>
       </c>
       <c r="U44">
         <v>0.59</v>
@@ -11294,67 +8915,14 @@
       <c r="BW44">
         <v>0.17</v>
       </c>
+      <c r="BX44">
+        <f t="shared" si="0"/>
+        <v>3.5799999999999956</v>
+      </c>
     </row>
-    <row r="45" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45">
-        <v>30.36</v>
-      </c>
-      <c r="C45">
-        <v>28.19</v>
-      </c>
-      <c r="D45">
-        <v>9.6</v>
-      </c>
-      <c r="E45">
-        <v>10.43</v>
-      </c>
-      <c r="F45">
-        <v>4.8</v>
-      </c>
-      <c r="G45">
-        <v>2.78</v>
-      </c>
-      <c r="H45">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I45">
-        <v>1.81</v>
-      </c>
-      <c r="J45">
-        <v>0.62</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0.13</v>
-      </c>
-      <c r="M45">
-        <v>0.69</v>
-      </c>
-      <c r="N45">
-        <v>1.65</v>
-      </c>
-      <c r="O45">
-        <v>0.67</v>
-      </c>
-      <c r="P45">
-        <v>0.62</v>
-      </c>
-      <c r="Q45">
-        <v>0.2</v>
-      </c>
-      <c r="R45">
-        <v>0.83</v>
-      </c>
-      <c r="S45">
-        <v>0.27</v>
-      </c>
-      <c r="T45">
-        <v>0.7</v>
+        <v>98</v>
       </c>
       <c r="U45">
         <v>0.62</v>
@@ -11521,67 +9089,14 @@
       <c r="BW45">
         <v>0.17</v>
       </c>
+      <c r="BX45">
+        <f t="shared" si="0"/>
+        <v>3.4499999999999962</v>
+      </c>
     </row>
-    <row r="46" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46">
-        <v>29.14</v>
-      </c>
-      <c r="C46">
-        <v>26.91</v>
-      </c>
-      <c r="D46">
-        <v>10.02</v>
-      </c>
-      <c r="E46">
-        <v>9.83</v>
-      </c>
-      <c r="F46">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="G46">
-        <v>1.69</v>
-      </c>
-      <c r="H46">
-        <v>2.09</v>
-      </c>
-      <c r="I46">
-        <v>1.71</v>
-      </c>
-      <c r="J46">
-        <v>0.62</v>
-      </c>
-      <c r="K46">
-        <v>0.01</v>
-      </c>
-      <c r="L46">
-        <v>3.7</v>
-      </c>
-      <c r="M46">
-        <v>0.66</v>
-      </c>
-      <c r="N46">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="O46">
-        <v>0.61</v>
-      </c>
-      <c r="P46">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="Q46">
-        <v>0.2</v>
-      </c>
-      <c r="R46">
-        <v>0.84</v>
-      </c>
-      <c r="S46">
-        <v>0.24</v>
-      </c>
-      <c r="T46">
-        <v>0.66</v>
+        <v>99</v>
       </c>
       <c r="U46">
         <v>0.73</v>
@@ -11748,67 +9263,14 @@
       <c r="BW46">
         <v>0.16</v>
       </c>
+      <c r="BX46">
+        <f t="shared" si="0"/>
+        <v>3.3899999999999957</v>
+      </c>
     </row>
-    <row r="47" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47">
-        <v>28.97</v>
-      </c>
-      <c r="C47">
-        <v>27.47</v>
-      </c>
-      <c r="D47">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="E47">
-        <v>9.7200000000000006</v>
-      </c>
-      <c r="F47">
-        <v>5.03</v>
-      </c>
-      <c r="G47">
-        <v>1.61</v>
-      </c>
-      <c r="H47">
-        <v>2.13</v>
-      </c>
-      <c r="I47">
-        <v>1.69</v>
-      </c>
-      <c r="J47">
-        <v>0.6</v>
-      </c>
-      <c r="K47">
-        <v>0.01</v>
-      </c>
-      <c r="L47">
-        <v>3.74</v>
-      </c>
-      <c r="M47">
-        <v>0.63</v>
-      </c>
-      <c r="N47">
-        <v>2.11</v>
-      </c>
-      <c r="O47">
-        <v>0.6</v>
-      </c>
-      <c r="P47">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Q47">
-        <v>0.19</v>
-      </c>
-      <c r="R47">
-        <v>0.83</v>
-      </c>
-      <c r="S47">
-        <v>0.23</v>
-      </c>
-      <c r="T47">
-        <v>0.66</v>
+        <v>100</v>
       </c>
       <c r="U47">
         <v>0.67</v>
@@ -11975,67 +9437,14 @@
       <c r="BW47">
         <v>0.15</v>
       </c>
+      <c r="BX47">
+        <f t="shared" si="0"/>
+        <v>3.1299999999999963</v>
+      </c>
     </row>
-    <row r="48" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>120</v>
-      </c>
-      <c r="B48">
-        <v>28.52</v>
-      </c>
-      <c r="C48">
-        <v>27.33</v>
-      </c>
-      <c r="D48">
-        <v>10.27</v>
-      </c>
-      <c r="E48">
-        <v>9.6199999999999992</v>
-      </c>
-      <c r="F48">
-        <v>5.07</v>
-      </c>
-      <c r="G48">
-        <v>1.82</v>
-      </c>
-      <c r="H48">
-        <v>2.17</v>
-      </c>
-      <c r="I48">
-        <v>1.67</v>
-      </c>
-      <c r="J48">
-        <v>0.61</v>
-      </c>
-      <c r="K48">
-        <v>0.01</v>
-      </c>
-      <c r="L48">
-        <v>3.84</v>
-      </c>
-      <c r="M48">
-        <v>0.64</v>
-      </c>
-      <c r="N48">
-        <v>2.23</v>
-      </c>
-      <c r="O48">
-        <v>0.59</v>
-      </c>
-      <c r="P48">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="Q48">
-        <v>0.2</v>
-      </c>
-      <c r="R48">
-        <v>0.83</v>
-      </c>
-      <c r="S48">
-        <v>0.22</v>
-      </c>
-      <c r="T48">
-        <v>0.66</v>
+        <v>101</v>
       </c>
       <c r="U48">
         <v>0.7</v>
@@ -12202,67 +9611,14 @@
       <c r="BW48">
         <v>0.15</v>
       </c>
+      <c r="BX48">
+        <f t="shared" si="0"/>
+        <v>3.1499999999999955</v>
+      </c>
     </row>
-    <row r="49" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>121</v>
-      </c>
-      <c r="B49">
-        <v>28.35</v>
-      </c>
-      <c r="C49">
-        <v>27.41</v>
-      </c>
-      <c r="D49">
-        <v>10.31</v>
-      </c>
-      <c r="E49">
-        <v>9.27</v>
-      </c>
-      <c r="F49">
-        <v>5.29</v>
-      </c>
-      <c r="G49">
-        <v>1.94</v>
-      </c>
-      <c r="H49">
-        <v>2.16</v>
-      </c>
-      <c r="I49">
-        <v>1.63</v>
-      </c>
-      <c r="J49">
-        <v>0.59</v>
-      </c>
-      <c r="K49">
-        <v>0.01</v>
-      </c>
-      <c r="L49">
-        <v>3.95</v>
-      </c>
-      <c r="M49">
-        <v>0.64</v>
-      </c>
-      <c r="N49">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="O49">
-        <v>0.59</v>
-      </c>
-      <c r="P49">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Q49">
-        <v>0.19</v>
-      </c>
-      <c r="R49">
-        <v>0.83</v>
-      </c>
-      <c r="S49">
-        <v>0.23</v>
-      </c>
-      <c r="T49">
-        <v>0.66</v>
+        <v>102</v>
       </c>
       <c r="U49">
         <v>0.7</v>
@@ -12429,67 +9785,14 @@
       <c r="BW49">
         <v>0.14000000000000001</v>
       </c>
+      <c r="BX49">
+        <f t="shared" si="0"/>
+        <v>3.039999999999996</v>
+      </c>
     </row>
-    <row r="50" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>122</v>
-      </c>
-      <c r="B50">
-        <v>28.15</v>
-      </c>
-      <c r="C50">
-        <v>27</v>
-      </c>
-      <c r="D50">
-        <v>10.43</v>
-      </c>
-      <c r="E50">
-        <v>9.19</v>
-      </c>
-      <c r="F50">
-        <v>5.31</v>
-      </c>
-      <c r="G50">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="H50">
-        <v>2.19</v>
-      </c>
-      <c r="I50">
-        <v>1.6</v>
-      </c>
-      <c r="J50">
-        <v>0.62</v>
-      </c>
-      <c r="K50">
-        <v>0.01</v>
-      </c>
-      <c r="L50">
-        <v>3.99</v>
-      </c>
-      <c r="M50">
-        <v>0.64</v>
-      </c>
-      <c r="N50">
-        <v>2.34</v>
-      </c>
-      <c r="O50">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="P50">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Q50">
-        <v>0.19</v>
-      </c>
-      <c r="R50">
-        <v>0.85</v>
-      </c>
-      <c r="S50">
-        <v>0.21</v>
-      </c>
-      <c r="T50">
-        <v>0.68</v>
+        <v>103</v>
       </c>
       <c r="U50">
         <v>0.73</v>
@@ -12656,67 +9959,14 @@
       <c r="BW50">
         <v>0.13</v>
       </c>
+      <c r="BX50">
+        <f t="shared" si="0"/>
+        <v>3.0299999999999963</v>
+      </c>
     </row>
-    <row r="51" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51">
-        <v>27.84</v>
-      </c>
-      <c r="C51">
-        <v>26.46</v>
-      </c>
-      <c r="D51">
-        <v>10.63</v>
-      </c>
-      <c r="E51">
-        <v>8.84</v>
-      </c>
-      <c r="F51">
-        <v>5.39</v>
-      </c>
-      <c r="G51">
-        <v>3.2</v>
-      </c>
-      <c r="H51">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="I51">
-        <v>1.58</v>
-      </c>
-      <c r="J51">
-        <v>0.6</v>
-      </c>
-      <c r="K51">
-        <v>0.01</v>
-      </c>
-      <c r="L51">
-        <v>4.12</v>
-      </c>
-      <c r="M51">
-        <v>0.64</v>
-      </c>
-      <c r="N51">
-        <v>2.41</v>
-      </c>
-      <c r="O51">
-        <v>0.53</v>
-      </c>
-      <c r="P51">
-        <v>0.53</v>
-      </c>
-      <c r="Q51">
-        <v>0.19</v>
-      </c>
-      <c r="R51">
-        <v>0.87</v>
-      </c>
-      <c r="S51">
-        <v>0.2</v>
-      </c>
-      <c r="T51">
-        <v>0.67</v>
+        <v>104</v>
       </c>
       <c r="U51">
         <v>0.77</v>
@@ -12883,67 +10133,14 @@
       <c r="BW51">
         <v>0.13</v>
       </c>
+      <c r="BX51">
+        <f t="shared" si="0"/>
+        <v>3.0899999999999967</v>
+      </c>
     </row>
-    <row r="52" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>124</v>
-      </c>
-      <c r="B52">
-        <v>27.48</v>
-      </c>
-      <c r="C52">
-        <v>26.35</v>
-      </c>
-      <c r="D52">
-        <v>10.8</v>
-      </c>
-      <c r="E52">
-        <v>8.66</v>
-      </c>
-      <c r="F52">
-        <v>5.67</v>
-      </c>
-      <c r="G52">
-        <v>3.12</v>
-      </c>
-      <c r="H52">
-        <v>2.23</v>
-      </c>
-      <c r="I52">
-        <v>1.55</v>
-      </c>
-      <c r="J52">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K52">
-        <v>0.01</v>
-      </c>
-      <c r="L52">
-        <v>4.32</v>
-      </c>
-      <c r="M52">
-        <v>0.64</v>
-      </c>
-      <c r="N52">
-        <v>2.62</v>
-      </c>
-      <c r="O52">
-        <v>0.5</v>
-      </c>
-      <c r="P52">
-        <v>0.52</v>
-      </c>
-      <c r="Q52">
-        <v>0.19</v>
-      </c>
-      <c r="R52">
-        <v>0.89</v>
-      </c>
-      <c r="S52">
-        <v>0.2</v>
-      </c>
-      <c r="T52">
-        <v>0.66</v>
+        <v>105</v>
       </c>
       <c r="U52">
         <v>0.74</v>
@@ -13110,67 +10307,14 @@
       <c r="BW52">
         <v>0.13</v>
       </c>
+      <c r="BX52">
+        <f t="shared" si="0"/>
+        <v>3.0299999999999963</v>
+      </c>
     </row>
-    <row r="53" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>125</v>
-      </c>
-      <c r="B53">
-        <v>27.33</v>
-      </c>
-      <c r="C53">
-        <v>26.92</v>
-      </c>
-      <c r="D53">
-        <v>10.94</v>
-      </c>
-      <c r="E53">
-        <v>8.19</v>
-      </c>
-      <c r="F53">
-        <v>5.54</v>
-      </c>
-      <c r="G53">
-        <v>3.21</v>
-      </c>
-      <c r="H53">
-        <v>2.27</v>
-      </c>
-      <c r="I53">
-        <v>1.55</v>
-      </c>
-      <c r="J53">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K53">
-        <v>0.01</v>
-      </c>
-      <c r="L53">
-        <v>4.34</v>
-      </c>
-      <c r="M53">
-        <v>0.63</v>
-      </c>
-      <c r="N53">
-        <v>2.66</v>
-      </c>
-      <c r="O53">
-        <v>0.48</v>
-      </c>
-      <c r="P53">
-        <v>0.5</v>
-      </c>
-      <c r="Q53">
-        <v>0.18</v>
-      </c>
-      <c r="R53">
-        <v>0.88</v>
-      </c>
-      <c r="S53">
-        <v>0.19</v>
-      </c>
-      <c r="T53">
-        <v>0.67</v>
+        <v>106</v>
       </c>
       <c r="U53">
         <v>0.74</v>
@@ -13337,67 +10481,14 @@
       <c r="BW53">
         <v>0.13</v>
       </c>
+      <c r="BX53">
+        <f t="shared" si="0"/>
+        <v>2.9099999999999966</v>
+      </c>
     </row>
-    <row r="54" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>126</v>
-      </c>
-      <c r="B54">
-        <v>27.92</v>
-      </c>
-      <c r="C54">
-        <v>26.42</v>
-      </c>
-      <c r="D54">
-        <v>11.38</v>
-      </c>
-      <c r="E54">
-        <v>7.91</v>
-      </c>
-      <c r="F54">
-        <v>5.61</v>
-      </c>
-      <c r="G54">
-        <v>2.27</v>
-      </c>
-      <c r="H54">
-        <v>2.25</v>
-      </c>
-      <c r="I54">
-        <v>1.52</v>
-      </c>
-      <c r="J54">
-        <v>0.54</v>
-      </c>
-      <c r="K54">
-        <v>0.01</v>
-      </c>
-      <c r="L54">
-        <v>4.58</v>
-      </c>
-      <c r="M54">
-        <v>0.6</v>
-      </c>
-      <c r="N54">
-        <v>2.83</v>
-      </c>
-      <c r="O54">
-        <v>0.46</v>
-      </c>
-      <c r="P54">
-        <v>0.47</v>
-      </c>
-      <c r="Q54">
-        <v>0.16</v>
-      </c>
-      <c r="R54">
-        <v>0.96</v>
-      </c>
-      <c r="S54">
-        <v>0.17</v>
-      </c>
-      <c r="T54">
-        <v>0.68</v>
+        <v>107</v>
       </c>
       <c r="U54">
         <v>0.86</v>
@@ -13564,67 +10655,14 @@
       <c r="BW54">
         <v>0.15</v>
       </c>
+      <c r="BX54">
+        <f t="shared" si="0"/>
+        <v>3.2499999999999956</v>
+      </c>
     </row>
-    <row r="55" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>127</v>
-      </c>
-      <c r="B55">
-        <v>27.55</v>
-      </c>
-      <c r="C55">
-        <v>26.75</v>
-      </c>
-      <c r="D55">
-        <v>11.51</v>
-      </c>
-      <c r="E55">
-        <v>7.88</v>
-      </c>
-      <c r="F55">
-        <v>5.65</v>
-      </c>
-      <c r="G55">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="H55">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="I55">
-        <v>1.45</v>
-      </c>
-      <c r="J55">
-        <v>0.53</v>
-      </c>
-      <c r="K55">
-        <v>0.01</v>
-      </c>
-      <c r="L55">
-        <v>4.57</v>
-      </c>
-      <c r="M55">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N55">
-        <v>2.85</v>
-      </c>
-      <c r="O55">
-        <v>0.44</v>
-      </c>
-      <c r="P55">
-        <v>0.44</v>
-      </c>
-      <c r="Q55">
-        <v>0.15</v>
-      </c>
-      <c r="R55">
-        <v>0.96</v>
-      </c>
-      <c r="S55">
-        <v>0.16</v>
-      </c>
-      <c r="T55">
-        <v>0.67</v>
+        <v>108</v>
       </c>
       <c r="U55">
         <v>0.9</v>
@@ -13791,67 +10829,14 @@
       <c r="BW55">
         <v>0.13</v>
       </c>
+      <c r="BX55">
+        <f t="shared" si="0"/>
+        <v>3.2799999999999967</v>
+      </c>
     </row>
-    <row r="56" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>128</v>
-      </c>
-      <c r="B56">
-        <v>27.06</v>
-      </c>
-      <c r="C56">
-        <v>28.21</v>
-      </c>
-      <c r="D56">
-        <v>11.4</v>
-      </c>
-      <c r="E56">
-        <v>7.64</v>
-      </c>
-      <c r="F56">
-        <v>5.37</v>
-      </c>
-      <c r="G56">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="H56">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="I56">
-        <v>1.41</v>
-      </c>
-      <c r="J56">
-        <v>0.49</v>
-      </c>
-      <c r="K56">
-        <v>0.01</v>
-      </c>
-      <c r="L56">
-        <v>4.29</v>
-      </c>
-      <c r="M56">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N56">
-        <v>3.05</v>
-      </c>
-      <c r="O56">
-        <v>0.43</v>
-      </c>
-      <c r="P56">
-        <v>0.41</v>
-      </c>
-      <c r="Q56">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="R56">
-        <v>0.95</v>
-      </c>
-      <c r="S56">
-        <v>0.15</v>
-      </c>
-      <c r="T56">
-        <v>0.68</v>
+        <v>109</v>
       </c>
       <c r="U56">
         <v>0.85</v>
@@ -14018,67 +11003,14 @@
       <c r="BW56">
         <v>0.11</v>
       </c>
+      <c r="BX56">
+        <f t="shared" si="0"/>
+        <v>3.1999999999999975</v>
+      </c>
     </row>
-    <row r="57" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>129</v>
-      </c>
-      <c r="B57">
-        <v>27.18</v>
-      </c>
-      <c r="C57">
-        <v>28.54</v>
-      </c>
-      <c r="D57">
-        <v>11.37</v>
-      </c>
-      <c r="E57">
-        <v>7.52</v>
-      </c>
-      <c r="F57">
-        <v>5.3</v>
-      </c>
-      <c r="G57">
-        <v>2.62</v>
-      </c>
-      <c r="H57">
-        <v>2.33</v>
-      </c>
-      <c r="I57">
-        <v>1.37</v>
-      </c>
-      <c r="J57">
-        <v>0.47</v>
-      </c>
-      <c r="K57">
-        <v>0.01</v>
-      </c>
-      <c r="L57">
-        <v>4.2</v>
-      </c>
-      <c r="M57">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N57">
-        <v>2.73</v>
-      </c>
-      <c r="O57">
-        <v>0.42</v>
-      </c>
-      <c r="P57">
-        <v>0.39</v>
-      </c>
-      <c r="Q57">
-        <v>0.13</v>
-      </c>
-      <c r="R57">
-        <v>0.95</v>
-      </c>
-      <c r="S57">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="T57">
-        <v>0.65</v>
+        <v>110</v>
       </c>
       <c r="U57">
         <v>0.87</v>
@@ -14245,67 +11177,14 @@
       <c r="BW57">
         <v>0.11</v>
       </c>
+      <c r="BX57">
+        <f t="shared" si="0"/>
+        <v>3.1399999999999979</v>
+      </c>
     </row>
-    <row r="58" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>130</v>
-      </c>
-      <c r="B58">
-        <v>26.93</v>
-      </c>
-      <c r="C58">
-        <v>29.24</v>
-      </c>
-      <c r="D58">
-        <v>11.52</v>
-      </c>
-      <c r="E58">
-        <v>7.19</v>
-      </c>
-      <c r="F58">
-        <v>5.31</v>
-      </c>
-      <c r="G58">
-        <v>2.72</v>
-      </c>
-      <c r="H58">
-        <v>2.25</v>
-      </c>
-      <c r="I58">
-        <v>1.27</v>
-      </c>
-      <c r="J58">
-        <v>0.45</v>
-      </c>
-      <c r="K58">
-        <v>0.01</v>
-      </c>
-      <c r="L58">
-        <v>4.13</v>
-      </c>
-      <c r="M58">
-        <v>0.54</v>
-      </c>
-      <c r="N58">
-        <v>2.75</v>
-      </c>
-      <c r="O58">
-        <v>0.41</v>
-      </c>
-      <c r="P58">
-        <v>0.39</v>
-      </c>
-      <c r="Q58">
-        <v>0.12</v>
-      </c>
-      <c r="R58">
-        <v>0.96</v>
-      </c>
-      <c r="S58">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="T58">
-        <v>0.73</v>
+        <v>111</v>
       </c>
       <c r="U58">
         <v>0.81</v>
@@ -14472,67 +11351,14 @@
       <c r="BW58">
         <v>0.1</v>
       </c>
+      <c r="BX58">
+        <f t="shared" si="0"/>
+        <v>2.9599999999999982</v>
+      </c>
     </row>
-    <row r="59" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59">
-        <v>27.18</v>
-      </c>
-      <c r="C59">
-        <v>29.49</v>
-      </c>
-      <c r="D59">
-        <v>11.54</v>
-      </c>
-      <c r="E59">
-        <v>6.64</v>
-      </c>
-      <c r="F59">
-        <v>5.29</v>
-      </c>
-      <c r="G59">
-        <v>2.19</v>
-      </c>
-      <c r="H59">
-        <v>2.42</v>
-      </c>
-      <c r="I59">
-        <v>1.21</v>
-      </c>
-      <c r="J59">
-        <v>0.46</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>4.26</v>
-      </c>
-      <c r="M59">
-        <v>0.52</v>
-      </c>
-      <c r="N59">
-        <v>2.92</v>
-      </c>
-      <c r="O59">
-        <v>0.44</v>
-      </c>
-      <c r="P59">
-        <v>0.36</v>
-      </c>
-      <c r="Q59">
-        <v>0.11</v>
-      </c>
-      <c r="R59">
-        <v>1.07</v>
-      </c>
-      <c r="S59">
-        <v>0.13</v>
-      </c>
-      <c r="T59">
-        <v>0.78</v>
+        <v>112</v>
       </c>
       <c r="U59">
         <v>0.85</v>
@@ -14699,67 +11525,14 @@
       <c r="BW59">
         <v>0.14000000000000001</v>
       </c>
+      <c r="BX59">
+        <f t="shared" si="0"/>
+        <v>2.9499999999999984</v>
+      </c>
     </row>
-    <row r="60" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60">
-        <v>27.68</v>
-      </c>
-      <c r="C60">
-        <v>28.29</v>
-      </c>
-      <c r="D60">
-        <v>11.61</v>
-      </c>
-      <c r="E60">
-        <v>6.41</v>
-      </c>
-      <c r="F60">
-        <v>5.36</v>
-      </c>
-      <c r="G60">
-        <v>2.17</v>
-      </c>
-      <c r="H60">
-        <v>2.91</v>
-      </c>
-      <c r="I60">
-        <v>1.38</v>
-      </c>
-      <c r="J60">
-        <v>0.45</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="M60">
-        <v>0.54</v>
-      </c>
-      <c r="N60">
-        <v>3</v>
-      </c>
-      <c r="O60">
-        <v>0.43</v>
-      </c>
-      <c r="P60">
-        <v>0.35</v>
-      </c>
-      <c r="Q60">
-        <v>0.11</v>
-      </c>
-      <c r="R60">
-        <v>1.04</v>
-      </c>
-      <c r="S60">
-        <v>0.12</v>
-      </c>
-      <c r="T60">
-        <v>0.76</v>
+        <v>113</v>
       </c>
       <c r="U60">
         <v>0.94</v>
@@ -14926,67 +11699,14 @@
       <c r="BW60">
         <v>0.15</v>
       </c>
+      <c r="BX60">
+        <f t="shared" si="0"/>
+        <v>3.1599999999999975</v>
+      </c>
     </row>
-    <row r="61" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>133</v>
-      </c>
-      <c r="B61">
-        <v>28.22</v>
-      </c>
-      <c r="C61">
-        <v>27.57</v>
-      </c>
-      <c r="D61">
-        <v>12.24</v>
-      </c>
-      <c r="E61">
-        <v>6.53</v>
-      </c>
-      <c r="F61">
-        <v>5.25</v>
-      </c>
-      <c r="G61">
-        <v>2.25</v>
-      </c>
-      <c r="H61">
-        <v>2.66</v>
-      </c>
-      <c r="I61">
-        <v>1.26</v>
-      </c>
-      <c r="J61">
-        <v>0.43</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>4.12</v>
-      </c>
-      <c r="M61">
-        <v>0.54</v>
-      </c>
-      <c r="N61">
-        <v>2.99</v>
-      </c>
-      <c r="O61">
-        <v>0.45</v>
-      </c>
-      <c r="P61">
-        <v>0.35</v>
-      </c>
-      <c r="Q61">
-        <v>0.1</v>
-      </c>
-      <c r="R61">
-        <v>1.04</v>
-      </c>
-      <c r="S61">
-        <v>0.12</v>
-      </c>
-      <c r="T61">
-        <v>0.75</v>
+        <v>114</v>
       </c>
       <c r="U61">
         <v>0.93</v>
@@ -15153,67 +11873,14 @@
       <c r="BW61">
         <v>0.15</v>
       </c>
+      <c r="BX61">
+        <f t="shared" si="0"/>
+        <v>3.1199999999999974</v>
+      </c>
     </row>
-    <row r="62" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>134</v>
-      </c>
-      <c r="B62">
-        <v>27.94</v>
-      </c>
-      <c r="C62">
-        <v>27.68</v>
-      </c>
-      <c r="D62">
-        <v>12.18</v>
-      </c>
-      <c r="E62">
-        <v>6.18</v>
-      </c>
-      <c r="F62">
-        <v>5.37</v>
-      </c>
-      <c r="G62">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="H62">
-        <v>2.62</v>
-      </c>
-      <c r="I62">
-        <v>1.18</v>
-      </c>
-      <c r="J62">
-        <v>0.42</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>4.25</v>
-      </c>
-      <c r="M62">
-        <v>0.54</v>
-      </c>
-      <c r="N62">
-        <v>3.09</v>
-      </c>
-      <c r="O62">
-        <v>0.46</v>
-      </c>
-      <c r="P62">
-        <v>0.35</v>
-      </c>
-      <c r="Q62">
-        <v>0.1</v>
-      </c>
-      <c r="R62">
-        <v>1.05</v>
-      </c>
-      <c r="S62">
-        <v>0.12</v>
-      </c>
-      <c r="T62">
-        <v>0.81</v>
+        <v>115</v>
       </c>
       <c r="U62">
         <v>0.94</v>
@@ -15380,67 +12047,14 @@
       <c r="BW62">
         <v>0.14000000000000001</v>
       </c>
+      <c r="BX62">
+        <f t="shared" si="0"/>
+        <v>3.0599999999999965</v>
+      </c>
     </row>
-    <row r="63" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>135</v>
-      </c>
-      <c r="B63">
-        <v>28.25</v>
-      </c>
-      <c r="C63">
-        <v>27.83</v>
-      </c>
-      <c r="D63">
-        <v>12.64</v>
-      </c>
-      <c r="E63">
-        <v>6.25</v>
-      </c>
-      <c r="F63">
-        <v>5.37</v>
-      </c>
-      <c r="G63">
-        <v>2.25</v>
-      </c>
-      <c r="H63">
-        <v>2.42</v>
-      </c>
-      <c r="I63">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="J63">
-        <v>0.38</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>4.08</v>
-      </c>
-      <c r="M63">
-        <v>0.51</v>
-      </c>
-      <c r="N63">
-        <v>3.04</v>
-      </c>
-      <c r="O63">
-        <v>0.43</v>
-      </c>
-      <c r="P63">
-        <v>0.32</v>
-      </c>
-      <c r="Q63">
-        <v>0.08</v>
-      </c>
-      <c r="R63">
-        <v>1.04</v>
-      </c>
-      <c r="S63">
-        <v>0.12</v>
-      </c>
-      <c r="T63">
-        <v>0.77</v>
+        <v>116</v>
       </c>
       <c r="U63">
         <v>0.9</v>
@@ -15607,67 +12221,14 @@
       <c r="BW63">
         <v>0.14000000000000001</v>
       </c>
+      <c r="BX63">
+        <f t="shared" si="0"/>
+        <v>3.0699999999999981</v>
+      </c>
     </row>
-    <row r="64" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>136</v>
-      </c>
-      <c r="B64">
-        <v>28.24</v>
-      </c>
-      <c r="C64">
-        <v>27.22</v>
-      </c>
-      <c r="D64">
-        <v>13.05</v>
-      </c>
-      <c r="E64">
-        <v>6.09</v>
-      </c>
-      <c r="F64">
-        <v>5.76</v>
-      </c>
-      <c r="G64">
-        <v>2.12</v>
-      </c>
-      <c r="H64">
-        <v>2.35</v>
-      </c>
-      <c r="I64">
-        <v>1.03</v>
-      </c>
-      <c r="J64">
-        <v>0.37</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>4.3</v>
-      </c>
-      <c r="M64">
-        <v>0.5</v>
-      </c>
-      <c r="N64">
-        <v>3.26</v>
-      </c>
-      <c r="O64">
-        <v>0.4</v>
-      </c>
-      <c r="P64">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="Q64">
-        <v>0.08</v>
-      </c>
-      <c r="R64">
-        <v>1.04</v>
-      </c>
-      <c r="S64">
-        <v>0.1</v>
-      </c>
-      <c r="T64">
-        <v>0.73</v>
+        <v>117</v>
       </c>
       <c r="U64">
         <v>0.85</v>
@@ -15834,67 +12395,14 @@
       <c r="BW64">
         <v>0.13</v>
       </c>
+      <c r="BX64">
+        <f t="shared" si="0"/>
+        <v>3.0199999999999978</v>
+      </c>
     </row>
-    <row r="65" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>137</v>
-      </c>
-      <c r="B65">
-        <v>28.17</v>
-      </c>
-      <c r="C65">
-        <v>27.5</v>
-      </c>
-      <c r="D65">
-        <v>12.86</v>
-      </c>
-      <c r="E65">
-        <v>6.34</v>
-      </c>
-      <c r="F65">
-        <v>5.39</v>
-      </c>
-      <c r="G65">
-        <v>2.62</v>
-      </c>
-      <c r="H65">
-        <v>2.41</v>
-      </c>
-      <c r="I65">
-        <v>1.01</v>
-      </c>
-      <c r="J65">
-        <v>0.35</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>4.28</v>
-      </c>
-      <c r="M65">
-        <v>0.49</v>
-      </c>
-      <c r="N65">
-        <v>3.1</v>
-      </c>
-      <c r="O65">
-        <v>0.35</v>
-      </c>
-      <c r="P65">
-        <v>0.26</v>
-      </c>
-      <c r="Q65">
-        <v>0.1</v>
-      </c>
-      <c r="R65">
-        <v>1.02</v>
-      </c>
-      <c r="S65">
-        <v>0.08</v>
-      </c>
-      <c r="T65">
-        <v>0.75</v>
+        <v>118</v>
       </c>
       <c r="U65">
         <v>0.82</v>
@@ -16061,67 +12569,14 @@
       <c r="BW65">
         <v>0.13</v>
       </c>
+      <c r="BX65">
+        <f t="shared" si="0"/>
+        <v>2.8699999999999974</v>
+      </c>
     </row>
-    <row r="66" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66">
-        <v>28.76</v>
-      </c>
-      <c r="C66">
-        <v>27.83</v>
-      </c>
-      <c r="D66">
-        <v>12.8</v>
-      </c>
-      <c r="E66">
-        <v>6.03</v>
-      </c>
-      <c r="F66">
-        <v>5.14</v>
-      </c>
-      <c r="G66">
-        <v>2.54</v>
-      </c>
-      <c r="H66">
-        <v>2.48</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>0.35</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>3.95</v>
-      </c>
-      <c r="M66">
-        <v>0.49</v>
-      </c>
-      <c r="N66">
-        <v>2.94</v>
-      </c>
-      <c r="O66">
-        <v>0.35</v>
-      </c>
-      <c r="P66">
-        <v>0.24</v>
-      </c>
-      <c r="Q66">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R66">
-        <v>1.02</v>
-      </c>
-      <c r="S66">
-        <v>0.09</v>
-      </c>
-      <c r="T66">
-        <v>0.74</v>
+        <v>119</v>
       </c>
       <c r="U66">
         <v>0.96</v>
@@ -16288,67 +12743,14 @@
       <c r="BW66">
         <v>0.13</v>
       </c>
+      <c r="BX66">
+        <f t="shared" si="0"/>
+        <v>3.1299999999999977</v>
+      </c>
     </row>
-    <row r="67" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>139</v>
-      </c>
-      <c r="B67">
-        <v>28.41</v>
-      </c>
-      <c r="C67">
-        <v>27.8</v>
-      </c>
-      <c r="D67">
-        <v>13.02</v>
-      </c>
-      <c r="E67">
-        <v>5.64</v>
-      </c>
-      <c r="F67">
-        <v>5.32</v>
-      </c>
-      <c r="G67">
-        <v>2.31</v>
-      </c>
-      <c r="H67">
-        <v>2.36</v>
-      </c>
-      <c r="I67">
-        <v>0.93</v>
-      </c>
-      <c r="J67">
-        <v>0.34</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>4.29</v>
-      </c>
-      <c r="M67">
-        <v>0.48</v>
-      </c>
-      <c r="N67">
-        <v>3.16</v>
-      </c>
-      <c r="O67">
-        <v>0.32</v>
-      </c>
-      <c r="P67">
-        <v>0.23</v>
-      </c>
-      <c r="Q67">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R67">
-        <v>1.07</v>
-      </c>
-      <c r="S67">
-        <v>0.08</v>
-      </c>
-      <c r="T67">
-        <v>0.73</v>
+        <v>120</v>
       </c>
       <c r="U67">
         <v>1.02</v>
@@ -16515,67 +12917,14 @@
       <c r="BW67">
         <v>0.2</v>
       </c>
+      <c r="BX67">
+        <f t="shared" ref="BX67:BX75" si="1">SUM(U67:BW67)</f>
+        <v>3.4299999999999988</v>
+      </c>
     </row>
-    <row r="68" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68">
-        <v>28.21</v>
-      </c>
-      <c r="C68">
-        <v>28.41</v>
-      </c>
-      <c r="D68">
-        <v>12.73</v>
-      </c>
-      <c r="E68">
-        <v>5.27</v>
-      </c>
-      <c r="F68">
-        <v>5.53</v>
-      </c>
-      <c r="G68">
-        <v>2.19</v>
-      </c>
-      <c r="H68">
-        <v>2.33</v>
-      </c>
-      <c r="I68">
-        <v>0.85</v>
-      </c>
-      <c r="J68">
-        <v>0.31</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="M68">
-        <v>0.45</v>
-      </c>
-      <c r="N68">
-        <v>3.16</v>
-      </c>
-      <c r="O68">
-        <v>0.31</v>
-      </c>
-      <c r="P68">
-        <v>0.21</v>
-      </c>
-      <c r="Q68">
-        <v>0.06</v>
-      </c>
-      <c r="R68">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="S68">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="T68">
-        <v>0.77</v>
+        <v>121</v>
       </c>
       <c r="U68">
         <v>1.0900000000000001</v>
@@ -16742,67 +13091,14 @@
       <c r="BW68">
         <v>0.27</v>
       </c>
+      <c r="BX68">
+        <f t="shared" si="1"/>
+        <v>3.6499999999999972</v>
+      </c>
     </row>
-    <row r="69" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>141</v>
-      </c>
-      <c r="B69">
-        <v>28.33</v>
-      </c>
-      <c r="C69">
-        <v>27.48</v>
-      </c>
-      <c r="D69">
-        <v>12.97</v>
-      </c>
-      <c r="E69">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="F69">
-        <v>6.28</v>
-      </c>
-      <c r="G69">
-        <v>2.16</v>
-      </c>
-      <c r="H69">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I69">
-        <v>0.78</v>
-      </c>
-      <c r="J69">
-        <v>0.3</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>4.59</v>
-      </c>
-      <c r="M69">
-        <v>0.45</v>
-      </c>
-      <c r="N69">
-        <v>3.37</v>
-      </c>
-      <c r="O69">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="P69">
-        <v>0.19</v>
-      </c>
-      <c r="Q69">
-        <v>0.06</v>
-      </c>
-      <c r="R69">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="S69">
-        <v>0.06</v>
-      </c>
-      <c r="T69">
-        <v>0.72</v>
+        <v>122</v>
       </c>
       <c r="U69">
         <v>1.02</v>
@@ -16969,67 +13265,14 @@
       <c r="BW69">
         <v>0.28999999999999998</v>
       </c>
+      <c r="BX69">
+        <f t="shared" si="1"/>
+        <v>3.5799999999999979</v>
+      </c>
     </row>
-    <row r="70" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>142</v>
-      </c>
-      <c r="B70">
-        <v>27.38</v>
-      </c>
-      <c r="C70">
-        <v>26.98</v>
-      </c>
-      <c r="D70">
-        <v>12.35</v>
-      </c>
-      <c r="E70">
-        <v>5.25</v>
-      </c>
-      <c r="F70">
-        <v>6.4</v>
-      </c>
-      <c r="G70">
-        <v>3.28</v>
-      </c>
-      <c r="H70">
-        <v>2.25</v>
-      </c>
-      <c r="I70">
-        <v>0.71</v>
-      </c>
-      <c r="J70">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>5.07</v>
-      </c>
-      <c r="M70">
-        <v>0.43</v>
-      </c>
-      <c r="N70">
-        <v>3.68</v>
-      </c>
-      <c r="O70">
-        <v>0.27</v>
-      </c>
-      <c r="P70">
-        <v>0.19</v>
-      </c>
-      <c r="Q70">
-        <v>0.08</v>
-      </c>
-      <c r="R70">
-        <v>1.21</v>
-      </c>
-      <c r="S70">
-        <v>0.05</v>
-      </c>
-      <c r="T70">
-        <v>0.75</v>
+        <v>123</v>
       </c>
       <c r="U70">
         <v>0.98</v>
@@ -17196,67 +13439,14 @@
       <c r="BW70">
         <v>0.26</v>
       </c>
+      <c r="BX70">
+        <f t="shared" si="1"/>
+        <v>3.349999999999997</v>
+      </c>
     </row>
-    <row r="71" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71">
-        <v>27.09</v>
-      </c>
-      <c r="C71">
-        <v>27.6</v>
-      </c>
-      <c r="D71">
-        <v>12.52</v>
-      </c>
-      <c r="E71">
-        <v>4.62</v>
-      </c>
-      <c r="F71">
-        <v>6.41</v>
-      </c>
-      <c r="G71">
-        <v>2.74</v>
-      </c>
-      <c r="H71">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I71">
-        <v>0.68</v>
-      </c>
-      <c r="J71">
-        <v>0.3</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>5.26</v>
-      </c>
-      <c r="M71">
-        <v>0.45</v>
-      </c>
-      <c r="N71">
-        <v>3.96</v>
-      </c>
-      <c r="O71">
-        <v>0.27</v>
-      </c>
-      <c r="P71">
-        <v>0.19</v>
-      </c>
-      <c r="Q71">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R71">
-        <v>1.26</v>
-      </c>
-      <c r="S71">
-        <v>0.05</v>
-      </c>
-      <c r="T71">
-        <v>0.74</v>
+        <v>124</v>
       </c>
       <c r="U71">
         <v>1.07</v>
@@ -17423,67 +13613,14 @@
       <c r="BW71">
         <v>0.25</v>
       </c>
+      <c r="BX71">
+        <f t="shared" si="1"/>
+        <v>3.469999999999998</v>
+      </c>
     </row>
-    <row r="72" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>144</v>
-      </c>
-      <c r="B72">
-        <v>26.75</v>
-      </c>
-      <c r="C72">
-        <v>27.1</v>
-      </c>
-      <c r="D72">
-        <v>12.29</v>
-      </c>
-      <c r="E72">
-        <v>4.84</v>
-      </c>
-      <c r="F72">
-        <v>6.86</v>
-      </c>
-      <c r="G72">
-        <v>3.14</v>
-      </c>
-      <c r="H72">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="I72">
-        <v>0.64</v>
-      </c>
-      <c r="J72">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>5.3</v>
-      </c>
-      <c r="M72">
-        <v>0.45</v>
-      </c>
-      <c r="N72">
-        <v>4.03</v>
-      </c>
-      <c r="O72">
-        <v>0.24</v>
-      </c>
-      <c r="P72">
-        <v>0.17</v>
-      </c>
-      <c r="Q72">
-        <v>0.08</v>
-      </c>
-      <c r="R72">
-        <v>1.22</v>
-      </c>
-      <c r="S72">
-        <v>0.05</v>
-      </c>
-      <c r="T72">
-        <v>0.76</v>
+        <v>125</v>
       </c>
       <c r="U72">
         <v>1.06</v>
@@ -17650,67 +13787,14 @@
       <c r="BW72">
         <v>0.24</v>
       </c>
+      <c r="BX72">
+        <f t="shared" si="1"/>
+        <v>3.4499999999999984</v>
+      </c>
     </row>
-    <row r="73" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>145</v>
-      </c>
-      <c r="B73">
-        <v>27.1</v>
-      </c>
-      <c r="C73">
-        <v>28.42</v>
-      </c>
-      <c r="D73">
-        <v>12.16</v>
-      </c>
-      <c r="E73">
-        <v>4.32</v>
-      </c>
-      <c r="F73">
-        <v>6.39</v>
-      </c>
-      <c r="G73">
-        <v>3</v>
-      </c>
-      <c r="H73">
-        <v>2.5</v>
-      </c>
-      <c r="I73">
-        <v>0.7</v>
-      </c>
-      <c r="J73">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>5.17</v>
-      </c>
-      <c r="M73">
-        <v>0.46</v>
-      </c>
-      <c r="N73">
-        <v>3.79</v>
-      </c>
-      <c r="O73">
-        <v>0.25</v>
-      </c>
-      <c r="P73">
-        <v>0.18</v>
-      </c>
-      <c r="Q73">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R73">
-        <v>1.23</v>
-      </c>
-      <c r="S73">
-        <v>0.06</v>
-      </c>
-      <c r="T73">
-        <v>0.74</v>
+        <v>126</v>
       </c>
       <c r="U73">
         <v>1.01</v>
@@ -17877,67 +13961,14 @@
       <c r="BW73">
         <v>0.24</v>
       </c>
+      <c r="BX73">
+        <f t="shared" si="1"/>
+        <v>3.1299999999999972</v>
+      </c>
     </row>
-    <row r="74" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>146</v>
-      </c>
-      <c r="B74">
-        <v>26.05</v>
-      </c>
-      <c r="C74">
-        <v>30.61</v>
-      </c>
-      <c r="D74">
-        <v>11.68</v>
-      </c>
-      <c r="E74">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="F74">
-        <v>6.35</v>
-      </c>
-      <c r="G74">
-        <v>3.2</v>
-      </c>
-      <c r="H74">
-        <v>2.21</v>
-      </c>
-      <c r="I74">
-        <v>0.62</v>
-      </c>
-      <c r="J74">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>5.09</v>
-      </c>
-      <c r="M74">
-        <v>0.45</v>
-      </c>
-      <c r="N74">
-        <v>3.68</v>
-      </c>
-      <c r="O74">
-        <v>0.24</v>
-      </c>
-      <c r="P74">
-        <v>0.18</v>
-      </c>
-      <c r="Q74">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R74">
-        <v>1.18</v>
-      </c>
-      <c r="S74">
-        <v>0.06</v>
-      </c>
-      <c r="T74">
-        <v>0.73</v>
+        <v>127</v>
       </c>
       <c r="U74">
         <v>1.03</v>
@@ -18103,6 +14134,10 @@
       </c>
       <c r="BW74">
         <v>0.23</v>
+      </c>
+      <c r="BX74">
+        <f t="shared" si="1"/>
+        <v>3.1599999999999975</v>
       </c>
     </row>
   </sheetData>
